--- a/Eviews/data_finprog_bo.xlsx
+++ b/Eviews/data_finprog_bo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783ED817-B168-41FA-A5B9-7EA91E8768B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0AE7A-E9CF-4D17-A0EA-BCD3B588A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>CPRIVR</t>
   </si>
@@ -437,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3849,4 +3850,3422 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF34A5B-3FAD-417E-8292-EFB3A12651A8}">
+  <dimension ref="A1:AF38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1988</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.151</v>
+      </c>
+      <c r="K2">
+        <v>523</v>
+      </c>
+      <c r="M2">
+        <v>1683</v>
+      </c>
+      <c r="R2">
+        <v>14220</v>
+      </c>
+      <c r="V2">
+        <v>0.255</v>
+      </c>
+      <c r="W2">
+        <v>0.254</v>
+      </c>
+      <c r="AE2">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>11281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1989</v>
+      </c>
+      <c r="C3">
+        <v>0.155</v>
+      </c>
+      <c r="I3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K3">
+        <v>505</v>
+      </c>
+      <c r="M3">
+        <v>2245</v>
+      </c>
+      <c r="R3">
+        <v>14759</v>
+      </c>
+      <c r="V3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>11482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1990</v>
+      </c>
+      <c r="C4">
+        <v>0.155</v>
+      </c>
+      <c r="I4">
+        <v>0.122</v>
+      </c>
+      <c r="J4">
+        <v>20.337</v>
+      </c>
+      <c r="K4">
+        <v>764</v>
+      </c>
+      <c r="L4">
+        <v>87.555813610000001</v>
+      </c>
+      <c r="M4">
+        <v>3339</v>
+      </c>
+      <c r="N4">
+        <v>15443</v>
+      </c>
+      <c r="R4">
+        <v>15443</v>
+      </c>
+      <c r="V4">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.24</v>
+      </c>
+      <c r="X4">
+        <v>3285.1453016669102</v>
+      </c>
+      <c r="Y4">
+        <v>668.1</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>11870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1991</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.13558219677931099</v>
+      </c>
+      <c r="E5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.8340734499933301E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.1855</v>
+      </c>
+      <c r="H5">
+        <v>0.117241462279378</v>
+      </c>
+      <c r="I5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>23.29</v>
+      </c>
+      <c r="K5">
+        <v>945</v>
+      </c>
+      <c r="L5">
+        <v>90.848779320000006</v>
+      </c>
+      <c r="M5">
+        <v>5171</v>
+      </c>
+      <c r="N5">
+        <v>19132</v>
+      </c>
+      <c r="O5">
+        <v>1.0214122408639399E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.1092122746569003E-2</v>
+      </c>
+      <c r="Q5">
+        <v>5.1306245155208402E-2</v>
+      </c>
+      <c r="R5">
+        <v>16256</v>
+      </c>
+      <c r="T5">
+        <v>3.57</v>
+      </c>
+      <c r="V5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="X5">
+        <v>3329.3258909403098</v>
+      </c>
+      <c r="Y5">
+        <v>775.4</v>
+      </c>
+      <c r="Z5">
+        <v>89.72</v>
+      </c>
+      <c r="AA5">
+        <v>117.2</v>
+      </c>
+      <c r="AB5">
+        <v>121.4</v>
+      </c>
+      <c r="AC5">
+        <v>122</v>
+      </c>
+      <c r="AD5">
+        <v>124</v>
+      </c>
+      <c r="AE5">
+        <v>1.2314000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>12264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1992</v>
+      </c>
+      <c r="C6">
+        <v>0.17</v>
+      </c>
+      <c r="D6">
+        <v>9.9478069760274401E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.11</v>
+      </c>
+      <c r="F6">
+        <v>-7.8906127691992199E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.43</v>
+      </c>
+      <c r="H6">
+        <v>0.107368682529473</v>
+      </c>
+      <c r="I6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="K6">
+        <v>1068</v>
+      </c>
+      <c r="L6">
+        <v>93.763636790000007</v>
+      </c>
+      <c r="M6">
+        <v>7092</v>
+      </c>
+      <c r="N6">
+        <v>22014</v>
+      </c>
+      <c r="O6">
+        <v>-2.3801416872545601E-2</v>
+      </c>
+      <c r="P6">
+        <v>4.0153215010991901E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.63517981384462E-2</v>
+      </c>
+      <c r="R6">
+        <v>16524</v>
+      </c>
+      <c r="T6">
+        <v>3.9</v>
+      </c>
+      <c r="V6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="W6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="X6">
+        <v>3619.6843660110399</v>
+      </c>
+      <c r="Y6">
+        <v>931.2</v>
+      </c>
+      <c r="Z6">
+        <v>86.54</v>
+      </c>
+      <c r="AA6">
+        <v>136.1</v>
+      </c>
+      <c r="AB6">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>139.9</v>
+      </c>
+      <c r="AE6">
+        <v>1.4564999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1993</v>
+      </c>
+      <c r="C7">
+        <v>0.18</v>
+      </c>
+      <c r="D7">
+        <v>8.8978913285940195E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F7">
+        <v>-8.7003968386284297E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="H7">
+        <v>9.7679310124568597E-2</v>
+      </c>
+      <c r="I7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>28.12</v>
+      </c>
+      <c r="K7">
+        <v>1241</v>
+      </c>
+      <c r="L7">
+        <v>94.928079929999996</v>
+      </c>
+      <c r="M7">
+        <v>9675</v>
+      </c>
+      <c r="N7">
+        <v>24459</v>
+      </c>
+      <c r="O7">
+        <v>2.5217325058182099E-3</v>
+      </c>
+      <c r="P7">
+        <v>3.9316448499501201E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.18381810053194E-2</v>
+      </c>
+      <c r="R7">
+        <v>17230</v>
+      </c>
+      <c r="T7">
+        <v>4.26</v>
+      </c>
+      <c r="V7">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X7">
+        <v>3737.1977240398301</v>
+      </c>
+      <c r="Y7">
+        <v>1050.9000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>93.04</v>
+      </c>
+      <c r="AA7">
+        <v>151.9</v>
+      </c>
+      <c r="AB7">
+        <v>147.9</v>
+      </c>
+      <c r="AC7">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>152.9</v>
+      </c>
+      <c r="AE7">
+        <v>1.6395999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>13123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1994</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>8.1770069285518707E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>-6.5077769964517196E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.2525</v>
+      </c>
+      <c r="H8">
+        <v>8.8277846281970496E-2</v>
+      </c>
+      <c r="I8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>30.515999999999998</v>
+      </c>
+      <c r="K8">
+        <v>1061</v>
+      </c>
+      <c r="L8">
+        <v>101.9708826</v>
+      </c>
+      <c r="M8">
+        <v>11767</v>
+      </c>
+      <c r="N8">
+        <v>27636</v>
+      </c>
+      <c r="O8">
+        <v>7.1608642704185802E-3</v>
+      </c>
+      <c r="P8">
+        <v>3.8445950267457903E-2</v>
+      </c>
+      <c r="Q8">
+        <v>4.5606814537876503E-2</v>
+      </c>
+      <c r="R8">
+        <v>18034</v>
+      </c>
+      <c r="T8">
+        <v>4.62</v>
+      </c>
+      <c r="V8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="X8">
+        <v>4707.3666273430299</v>
+      </c>
+      <c r="Y8">
+        <v>1436.5</v>
+      </c>
+      <c r="Z8">
+        <v>91.15</v>
+      </c>
+      <c r="AA8">
+        <v>166</v>
+      </c>
+      <c r="AB8">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>169.6</v>
+      </c>
+      <c r="AD8">
+        <v>166.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.8228</v>
+      </c>
+      <c r="AF8">
+        <v>13508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1995</v>
+      </c>
+      <c r="C9">
+        <v>0.12</v>
+      </c>
+      <c r="D9">
+        <v>0.118496432255056</v>
+      </c>
+      <c r="E9">
+        <v>0.105</v>
+      </c>
+      <c r="F9">
+        <v>3.9314644004456202E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.1283</v>
+      </c>
+      <c r="H9">
+        <v>7.9181788250600293E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>34.354999999999997</v>
+      </c>
+      <c r="K9">
+        <v>1365</v>
+      </c>
+      <c r="L9">
+        <v>105.08680889999999</v>
+      </c>
+      <c r="M9">
+        <v>12880</v>
+      </c>
+      <c r="N9">
+        <v>32235</v>
+      </c>
+      <c r="O9">
+        <v>8.2543200136011106E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.7431064695281097E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.5685384708882198E-2</v>
+      </c>
+      <c r="R9">
+        <v>18877</v>
+      </c>
+      <c r="T9">
+        <v>4.8</v>
+      </c>
+      <c r="V9">
+        <v>0.124</v>
+      </c>
+      <c r="W9">
+        <v>0.125</v>
+      </c>
+      <c r="X9">
+        <v>5049.9199534274503</v>
+      </c>
+      <c r="Y9">
+        <v>1734.9</v>
+      </c>
+      <c r="Z9">
+        <v>84.14</v>
+      </c>
+      <c r="AA9">
+        <v>179</v>
+      </c>
+      <c r="AB9">
+        <v>175.8</v>
+      </c>
+      <c r="AC9">
+        <v>181.2</v>
+      </c>
+      <c r="AD9">
+        <v>178.4</v>
+      </c>
+      <c r="AE9">
+        <v>1.9945999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1996</v>
+      </c>
+      <c r="C10">
+        <v>0.11</v>
+      </c>
+      <c r="D10">
+        <v>7.6491971422151903E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.105</v>
+      </c>
+      <c r="F10">
+        <v>6.1484159127372902E-3</v>
+      </c>
+      <c r="G10">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.0343555509414596E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J10">
+        <v>37.085999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1709</v>
+      </c>
+      <c r="L10">
+        <v>99.374933339999998</v>
+      </c>
+      <c r="M10">
+        <v>18430</v>
+      </c>
+      <c r="N10">
+        <v>37537</v>
+      </c>
+      <c r="O10">
+        <v>6.4924012842552401E-3</v>
+      </c>
+      <c r="P10">
+        <v>3.6232744806094203E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4.2725146090349497E-2</v>
+      </c>
+      <c r="R10">
+        <v>19701</v>
+      </c>
+      <c r="T10">
+        <v>5.07</v>
+      </c>
+      <c r="V10">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="W10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X10">
+        <v>5076.8484064067297</v>
+      </c>
+      <c r="Y10">
+        <v>1882.8</v>
+      </c>
+      <c r="Z10">
+        <v>87.22</v>
+      </c>
+      <c r="AA10">
+        <v>195.7</v>
+      </c>
+      <c r="AB10">
+        <v>196.4</v>
+      </c>
+      <c r="AC10">
+        <v>195.2</v>
+      </c>
+      <c r="AD10">
+        <v>193.1</v>
+      </c>
+      <c r="AE10">
+        <v>2.2227999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>14360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1997</v>
+      </c>
+      <c r="C11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.5134929563597593E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.0262155861830301E-3</v>
+      </c>
+      <c r="G11">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="H11">
+        <v>6.2108713977414597E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>39.582000000000001</v>
+      </c>
+      <c r="K11">
+        <v>2731</v>
+      </c>
+      <c r="L11">
+        <v>97.062282389999893</v>
+      </c>
+      <c r="M11">
+        <v>22039</v>
+      </c>
+      <c r="N11">
+        <v>41644</v>
+      </c>
+      <c r="O11">
+        <v>1.34580887185301E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.4894486823156497E-2</v>
+      </c>
+      <c r="Q11">
+        <v>4.8352575541686697E-2</v>
+      </c>
+      <c r="R11">
+        <v>20677</v>
+      </c>
+      <c r="T11">
+        <v>5.25</v>
+      </c>
+      <c r="V11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="W11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="X11">
+        <v>5449.6993582941705</v>
+      </c>
+      <c r="Y11">
+        <v>2157.1</v>
+      </c>
+      <c r="Z11">
+        <v>96.27</v>
+      </c>
+      <c r="AA11">
+        <v>199.6</v>
+      </c>
+      <c r="AB11">
+        <v>205.5</v>
+      </c>
+      <c r="AC11">
+        <v>203</v>
+      </c>
+      <c r="AD11">
+        <v>203.1</v>
+      </c>
+      <c r="AE11">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>15140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1998</v>
+      </c>
+      <c r="B12">
+        <v>0.06</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.2996375845076401E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F12">
+        <v>-1.18879378876525E-2</v>
+      </c>
+      <c r="G12">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="H12">
+        <v>5.4884313732728902E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>41.320999999999998</v>
+      </c>
+      <c r="K12">
+        <v>3921</v>
+      </c>
+      <c r="L12">
+        <v>93.541560129999894</v>
+      </c>
+      <c r="M12">
+        <v>25118</v>
+      </c>
+      <c r="N12">
+        <v>46822</v>
+      </c>
+      <c r="O12">
+        <v>1.55486815779118E-2</v>
+      </c>
+      <c r="P12">
+        <v>3.35247109825699E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.90733925604818E-2</v>
+      </c>
+      <c r="R12">
+        <v>21717</v>
+      </c>
+      <c r="T12">
+        <v>5.51</v>
+      </c>
+      <c r="U12">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.125</v>
+      </c>
+      <c r="W12">
+        <v>0.125</v>
+      </c>
+      <c r="X12">
+        <v>5853.1981317005802</v>
+      </c>
+      <c r="Y12">
+        <v>2418.6</v>
+      </c>
+      <c r="Z12">
+        <v>98.7</v>
+      </c>
+      <c r="AA12">
+        <v>213.1</v>
+      </c>
+      <c r="AB12">
+        <v>220.5</v>
+      </c>
+      <c r="AC12">
+        <v>213.1</v>
+      </c>
+      <c r="AD12">
+        <v>207.2</v>
+      </c>
+      <c r="AE12">
+        <v>2.7572000000000001</v>
+      </c>
+      <c r="AF12">
+        <v>15935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1999</v>
+      </c>
+      <c r="B13">
+        <v>0.113</v>
+      </c>
+      <c r="C13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.0835458660395599E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>-1.82722083489524E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.9107667009348099E-2</v>
+      </c>
+      <c r="I13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J13">
+        <v>42.615000000000002</v>
+      </c>
+      <c r="K13">
+        <v>3032</v>
+      </c>
+      <c r="L13">
+        <v>93.580106009999994</v>
+      </c>
+      <c r="M13">
+        <v>25777</v>
+      </c>
+      <c r="N13">
+        <v>48156</v>
+      </c>
+      <c r="O13">
+        <v>-2.8139053751646801E-2</v>
+      </c>
+      <c r="P13">
+        <v>3.2366418407621701E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.2273646559749497E-3</v>
+      </c>
+      <c r="R13">
+        <v>21809</v>
+      </c>
+      <c r="T13">
+        <v>5.8</v>
+      </c>
+      <c r="U13">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="X13">
+        <v>5676.8743400211097</v>
+      </c>
+      <c r="Y13">
+        <v>2419.1999999999998</v>
+      </c>
+      <c r="Z13">
+        <v>99.94</v>
+      </c>
+      <c r="AA13">
+        <v>213.3</v>
+      </c>
+      <c r="AB13">
+        <v>226</v>
+      </c>
+      <c r="AC13">
+        <v>213.3</v>
+      </c>
+      <c r="AD13">
+        <v>215.4</v>
+      </c>
+      <c r="AE13">
+        <v>2.8593999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2000</v>
+      </c>
+      <c r="B14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.3550283449052601E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F14">
+        <v>-1.1546923213333201E-2</v>
+      </c>
+      <c r="G14">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.50972066623858E-2</v>
+      </c>
+      <c r="I14">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>44.069000000000003</v>
+      </c>
+      <c r="K14">
+        <v>2815</v>
+      </c>
+      <c r="L14">
+        <v>94.640855079999994</v>
+      </c>
+      <c r="M14">
+        <v>27264</v>
+      </c>
+      <c r="N14">
+        <v>51928</v>
+      </c>
+      <c r="O14">
+        <v>-7.0460842650151402E-3</v>
+      </c>
+      <c r="P14">
+        <v>3.1818097037378298E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.47720127723631E-2</v>
+      </c>
+      <c r="R14">
+        <v>22356</v>
+      </c>
+      <c r="T14">
+        <v>6.17</v>
+      </c>
+      <c r="U14">
+        <v>0.12</v>
+      </c>
+      <c r="V14">
+        <v>0.182</v>
+      </c>
+      <c r="W14">
+        <v>0.182</v>
+      </c>
+      <c r="X14">
+        <v>5500.9190133654001</v>
+      </c>
+      <c r="Y14">
+        <v>2424.1999999999998</v>
+      </c>
+      <c r="Z14">
+        <v>109.64</v>
+      </c>
+      <c r="AA14">
+        <v>236.5</v>
+      </c>
+      <c r="AB14">
+        <v>236.7</v>
+      </c>
+      <c r="AC14">
+        <v>236.5</v>
+      </c>
+      <c r="AD14">
+        <v>222.2</v>
+      </c>
+      <c r="AE14">
+        <v>2.9678</v>
+      </c>
+      <c r="AF14">
+        <v>16752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2001</v>
+      </c>
+      <c r="B15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.2156142012611506E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F15">
+        <v>-3.3773029262205503E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="H15">
+        <v>4.2988643463466598E-2</v>
+      </c>
+      <c r="I15">
+        <v>8.1999999999999906E-2</v>
+      </c>
+      <c r="J15">
+        <v>44.476999999999997</v>
+      </c>
+      <c r="K15">
+        <v>1894</v>
+      </c>
+      <c r="L15">
+        <v>96.283832419999996</v>
+      </c>
+      <c r="M15">
+        <v>29160</v>
+      </c>
+      <c r="N15">
+        <v>53790</v>
+      </c>
+      <c r="O15">
+        <v>-1.52739723636329E-2</v>
+      </c>
+      <c r="P15">
+        <v>3.1996844273389502E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.67228719097565E-2</v>
+      </c>
+      <c r="R15">
+        <v>22733</v>
+      </c>
+      <c r="T15">
+        <v>6.6</v>
+      </c>
+      <c r="U15">
+        <v>0.104</v>
+      </c>
+      <c r="V15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="W15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="X15">
+        <v>6071.0029903095901</v>
+      </c>
+      <c r="Y15">
+        <v>2700.2</v>
+      </c>
+      <c r="Z15">
+        <v>115.02</v>
+      </c>
+      <c r="AA15">
+        <v>242.9</v>
+      </c>
+      <c r="AB15">
+        <v>238.7</v>
+      </c>
+      <c r="AC15">
+        <v>242.9</v>
+      </c>
+      <c r="AD15">
+        <v>224</v>
+      </c>
+      <c r="AE15">
+        <v>3.2322000000000002</v>
+      </c>
+      <c r="AF15">
+        <v>16965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2002</v>
+      </c>
+      <c r="B16">
+        <v>0.104</v>
+      </c>
+      <c r="C16">
+        <v>0.04</v>
+      </c>
+      <c r="D16">
+        <v>2.41676763235152E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>-1.86345426285662E-2</v>
+      </c>
+      <c r="G16">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="H16">
+        <v>4.28022189520815E-2</v>
+      </c>
+      <c r="I16">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J16">
+        <v>45.564999999999998</v>
+      </c>
+      <c r="K16">
+        <v>2489</v>
+      </c>
+      <c r="L16">
+        <v>90.064121950000001</v>
+      </c>
+      <c r="M16">
+        <v>28473</v>
+      </c>
+      <c r="N16">
+        <v>56682</v>
+      </c>
+      <c r="O16">
+        <v>-8.3993900141794108E-3</v>
+      </c>
+      <c r="P16">
+        <v>3.2949296674554998E-2</v>
+      </c>
+      <c r="Q16">
+        <v>2.4549906660375601E-2</v>
+      </c>
+      <c r="R16">
+        <v>23298</v>
+      </c>
+      <c r="T16">
+        <v>7.16</v>
+      </c>
+      <c r="U16">
+        <v>0.113</v>
+      </c>
+      <c r="V16">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X16">
+        <v>6666.0814221441897</v>
+      </c>
+      <c r="Y16">
+        <v>3037.4</v>
+      </c>
+      <c r="Z16">
+        <v>111.01</v>
+      </c>
+      <c r="AA16">
+        <v>230.6</v>
+      </c>
+      <c r="AB16">
+        <v>241.7</v>
+      </c>
+      <c r="AC16">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>229</v>
+      </c>
+      <c r="AE16">
+        <v>3.3431999999999999</v>
+      </c>
+      <c r="AF16">
+        <v>17312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2003</v>
+      </c>
+      <c r="B17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.04</v>
+      </c>
+      <c r="D17">
+        <v>3.8638112627660197E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>-5.5823317474391404E-3</v>
+      </c>
+      <c r="G17">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <v>4.4220444375099401E-2</v>
+      </c>
+      <c r="I17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J17">
+        <v>47.36</v>
+      </c>
+      <c r="K17">
+        <v>2126</v>
+      </c>
+      <c r="L17">
+        <v>99.908111739999995</v>
+      </c>
+      <c r="M17">
+        <v>29912</v>
+      </c>
+      <c r="N17">
+        <v>61904</v>
+      </c>
+      <c r="O17">
+        <v>-7.8457585565434602E-3</v>
+      </c>
+      <c r="P17">
+        <v>3.4569351076138198E-2</v>
+      </c>
+      <c r="Q17">
+        <v>2.6723592519594701E-2</v>
+      </c>
+      <c r="R17">
+        <v>23929</v>
+      </c>
+      <c r="T17">
+        <v>7.65</v>
+      </c>
+      <c r="U17">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="V17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="W17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="X17">
+        <v>7442.3564189189101</v>
+      </c>
+      <c r="Y17">
+        <v>3524.7</v>
+      </c>
+      <c r="Z17">
+        <v>95.709999999999894</v>
+      </c>
+      <c r="AA17">
+        <v>218.2</v>
+      </c>
+      <c r="AB17">
+        <v>249.2</v>
+      </c>
+      <c r="AC17">
+        <v>282.5</v>
+      </c>
+      <c r="AD17">
+        <v>235.8</v>
+      </c>
+      <c r="AE17">
+        <v>3.6474000000000002</v>
+      </c>
+      <c r="AF17">
+        <v>17638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.03</v>
+      </c>
+      <c r="D18">
+        <v>4.5184088361882098E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>-1.5553971912214901E-3</v>
+      </c>
+      <c r="G18">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.6739485553103602E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <v>49.548999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1724</v>
+      </c>
+      <c r="L18">
+        <v>106.5495789</v>
+      </c>
+      <c r="M18">
+        <v>30194</v>
+      </c>
+      <c r="N18">
+        <v>69626</v>
+      </c>
+      <c r="O18">
+        <v>4.2336467778970304E-3</v>
+      </c>
+      <c r="P18">
+        <v>3.66669104132607E-2</v>
+      </c>
+      <c r="Q18">
+        <v>4.0900557191157802E-2</v>
+      </c>
+      <c r="R18">
+        <v>24928</v>
+      </c>
+      <c r="T18">
+        <v>7.93</v>
+      </c>
+      <c r="U18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V18">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="W18">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="X18">
+        <v>8643.9685967426194</v>
+      </c>
+      <c r="Y18">
+        <v>4283</v>
+      </c>
+      <c r="Z18">
+        <v>87.36</v>
+      </c>
+      <c r="AA18">
+        <v>206.1</v>
+      </c>
+      <c r="AB18">
+        <v>260.5</v>
+      </c>
+      <c r="AC18">
+        <v>305.8</v>
+      </c>
+      <c r="AD18">
+        <v>251.1</v>
+      </c>
+      <c r="AE18">
+        <v>3.9138999999999999</v>
+      </c>
+      <c r="AF18">
+        <v>18151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2005</v>
+      </c>
+      <c r="B19">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.7935425872569E-2</v>
+      </c>
+      <c r="E19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>-1.86425911663417E-3</v>
+      </c>
+      <c r="G19">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>4.9799684989203202E-2</v>
+      </c>
+      <c r="I19">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J19">
+        <v>51.981999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1809</v>
+      </c>
+      <c r="L19">
+        <v>112.0448166</v>
+      </c>
+      <c r="M19">
+        <v>34313</v>
+      </c>
+      <c r="N19">
+        <v>77024</v>
+      </c>
+      <c r="O19">
+        <v>4.2846292826580904E-3</v>
+      </c>
+      <c r="P19">
+        <v>3.8973420035478802E-2</v>
+      </c>
+      <c r="Q19">
+        <v>4.3258049318136899E-2</v>
+      </c>
+      <c r="R19">
+        <v>26030</v>
+      </c>
+      <c r="T19">
+        <v>8.0399999999999903</v>
+      </c>
+      <c r="U19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="V19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="X19">
+        <v>11887.768843061</v>
+      </c>
+      <c r="Y19">
+        <v>6179.5</v>
+      </c>
+      <c r="Z19">
+        <v>87.16</v>
+      </c>
+      <c r="AA19">
+        <v>260.7</v>
+      </c>
+      <c r="AB19">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="AC19">
+        <v>324.8</v>
+      </c>
+      <c r="AD19">
+        <v>295</v>
+      </c>
+      <c r="AE19">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="AF19">
+        <v>18755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2006</v>
+      </c>
+      <c r="B20">
+        <v>-6.9999999999999897E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.8256870408150299E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F20">
+        <v>-4.5689608064446103E-3</v>
+      </c>
+      <c r="G20">
+        <v>3.78E-2</v>
+      </c>
+      <c r="H20">
+        <v>5.2825831214594901E-2</v>
+      </c>
+      <c r="I20">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="J20">
+        <v>54.552</v>
+      </c>
+      <c r="K20">
+        <v>1876</v>
+      </c>
+      <c r="L20">
+        <v>112.7841299</v>
+      </c>
+      <c r="M20">
+        <v>40519</v>
+      </c>
+      <c r="N20">
+        <v>91748</v>
+      </c>
+      <c r="O20">
+        <v>5.6047946452843196E-3</v>
+      </c>
+      <c r="P20">
+        <v>4.1262661760127502E-2</v>
+      </c>
+      <c r="Q20">
+        <v>4.68674564054119E-2</v>
+      </c>
+      <c r="R20">
+        <v>27279</v>
+      </c>
+      <c r="T20">
+        <v>7.95</v>
+      </c>
+      <c r="U20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V20">
+        <v>6.3E-2</v>
+      </c>
+      <c r="W20">
+        <v>6.2E-2</v>
+      </c>
+      <c r="X20">
+        <v>16083.003372928501</v>
+      </c>
+      <c r="Y20">
+        <v>8773.6</v>
+      </c>
+      <c r="Z20">
+        <v>86.59</v>
+      </c>
+      <c r="AA20">
+        <v>302.2</v>
+      </c>
+      <c r="AB20">
+        <v>295.10000000000002</v>
+      </c>
+      <c r="AC20">
+        <v>395.9</v>
+      </c>
+      <c r="AD20">
+        <v>341.2</v>
+      </c>
+      <c r="AE20">
+        <v>4.2659000000000002</v>
+      </c>
+      <c r="AF20">
+        <v>19519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2007</v>
+      </c>
+      <c r="B21">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.06</v>
+      </c>
+      <c r="D21">
+        <v>0.110883073683439</v>
+      </c>
+      <c r="E21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F21">
+        <v>5.5659003514130501E-2</v>
+      </c>
+      <c r="G21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.5224070169309102E-2</v>
+      </c>
+      <c r="I21">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="J21">
+        <v>60.948999999999998</v>
+      </c>
+      <c r="K21">
+        <v>1957</v>
+      </c>
+      <c r="L21">
+        <v>109.70916819999999</v>
+      </c>
+      <c r="M21">
+        <v>52240</v>
+      </c>
+      <c r="N21">
+        <v>103009</v>
+      </c>
+      <c r="O21">
+        <v>1.27739905680226E-3</v>
+      </c>
+      <c r="P21">
+        <v>4.3351263697368699E-2</v>
+      </c>
+      <c r="Q21">
+        <v>4.4628662754170899E-2</v>
+      </c>
+      <c r="R21">
+        <v>28524</v>
+      </c>
+      <c r="T21">
+        <v>7.78</v>
+      </c>
+      <c r="U21">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="V21">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="W21">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="X21">
+        <v>23138.689724195599</v>
+      </c>
+      <c r="Y21">
+        <v>14102.8</v>
+      </c>
+      <c r="Z21">
+        <v>80.89</v>
+      </c>
+      <c r="AA21">
+        <v>353.3</v>
+      </c>
+      <c r="AB21">
+        <v>320.3</v>
+      </c>
+      <c r="AC21">
+        <v>426.9</v>
+      </c>
+      <c r="AD21">
+        <v>383.8</v>
+      </c>
+      <c r="AE21">
+        <v>4.5205000000000002</v>
+      </c>
+      <c r="AF21">
+        <v>20333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22">
+        <v>-0.113</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.111996474461198</v>
+      </c>
+      <c r="E22">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.5641616275886999E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.63548581853116E-2</v>
+      </c>
+      <c r="I22">
+        <v>-0.109</v>
+      </c>
+      <c r="J22">
+        <v>68.171999999999997</v>
+      </c>
+      <c r="K22">
+        <v>2351</v>
+      </c>
+      <c r="L22">
+        <v>96.755817449999995</v>
+      </c>
+      <c r="M22">
+        <v>62633</v>
+      </c>
+      <c r="N22">
+        <v>120694</v>
+      </c>
+      <c r="O22">
+        <v>1.4563636119812699E-2</v>
+      </c>
+      <c r="P22">
+        <v>4.5111901903816802E-2</v>
+      </c>
+      <c r="Q22">
+        <v>5.9675538023629501E-2</v>
+      </c>
+      <c r="R22">
+        <v>30278</v>
+      </c>
+      <c r="T22">
+        <v>7.17</v>
+      </c>
+      <c r="U22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V22">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="W22">
+        <v>-0.05</v>
+      </c>
+      <c r="X22">
+        <v>25000.4400633691</v>
+      </c>
+      <c r="Y22">
+        <v>17043.3</v>
+      </c>
+      <c r="Z22">
+        <v>76.78</v>
+      </c>
+      <c r="AA22">
+        <v>382.8</v>
+      </c>
+      <c r="AB22">
+        <v>350.2</v>
+      </c>
+      <c r="AC22">
+        <v>442.4</v>
+      </c>
+      <c r="AD22">
+        <v>455.2</v>
+      </c>
+      <c r="AE22">
+        <v>4.8140000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>21448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2009</v>
+      </c>
+      <c r="B23">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D23">
+        <v>2.62227027785044E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F23">
+        <v>-5.3512971351859402E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="H23">
+        <v>5.6135241629709801E-2</v>
+      </c>
+      <c r="I23">
+        <v>-8.5999999999999896E-2</v>
+      </c>
+      <c r="J23">
+        <v>68.350999999999999</v>
+      </c>
+      <c r="K23">
+        <v>2363</v>
+      </c>
+      <c r="L23">
+        <v>89.181339170000001</v>
+      </c>
+      <c r="M23">
+        <v>74985</v>
+      </c>
+      <c r="N23">
+        <v>121727</v>
+      </c>
+      <c r="O23">
+        <v>-1.34250167364757E-2</v>
+      </c>
+      <c r="P23">
+        <v>4.6430026426654301E-2</v>
+      </c>
+      <c r="Q23">
+        <v>3.3005009690178597E-2</v>
+      </c>
+      <c r="R23">
+        <v>31294</v>
+      </c>
+      <c r="T23">
+        <v>6.99</v>
+      </c>
+      <c r="U23">
+        <v>0.01</v>
+      </c>
+      <c r="V23">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="W23">
+        <v>-0.02</v>
+      </c>
+      <c r="X23">
+        <v>27640.268613480399</v>
+      </c>
+      <c r="Y23">
+        <v>18892.400000000001</v>
+      </c>
+      <c r="Z23">
+        <v>80.58</v>
+      </c>
+      <c r="AA23">
+        <v>359.2</v>
+      </c>
+      <c r="AB23">
+        <v>358.6</v>
+      </c>
+      <c r="AC23">
+        <v>412.7</v>
+      </c>
+      <c r="AD23">
+        <v>443.2</v>
+      </c>
+      <c r="AE23">
+        <v>5.1806999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>22235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>6.93585637098275E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.43198806774578E-2</v>
+      </c>
+      <c r="G24">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H24">
+        <v>5.5038683032369598E-2</v>
+      </c>
+      <c r="I24">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="J24">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="K24">
+        <v>2510</v>
+      </c>
+      <c r="L24">
+        <v>92.781691260000002</v>
+      </c>
+      <c r="M24">
+        <v>84382</v>
+      </c>
+      <c r="N24">
+        <v>137876</v>
+      </c>
+      <c r="O24">
+        <v>-6.8803612733644298E-3</v>
+      </c>
+      <c r="P24">
+        <v>4.7336723674261998E-2</v>
+      </c>
+      <c r="Q24">
+        <v>4.0456362400897498E-2</v>
+      </c>
+      <c r="R24">
+        <v>32586</v>
+      </c>
+      <c r="T24">
+        <v>7.02</v>
+      </c>
+      <c r="U24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V24">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="X24">
+        <v>33559.377559377499</v>
+      </c>
+      <c r="Y24">
+        <v>24585.599999999999</v>
+      </c>
+      <c r="Z24">
+        <v>81.209999999999894</v>
+      </c>
+      <c r="AA24">
+        <v>391.3</v>
+      </c>
+      <c r="AB24">
+        <v>371.5</v>
+      </c>
+      <c r="AC24">
+        <v>428.1</v>
+      </c>
+      <c r="AD24">
+        <v>471.6</v>
+      </c>
+      <c r="AE24">
+        <v>5.3536000000000001</v>
+      </c>
+      <c r="AF24">
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2011</v>
+      </c>
+      <c r="B25">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.11</v>
+      </c>
+      <c r="D25">
+        <v>6.6762704284039701E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.37591890744012E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="H25">
+        <v>5.3003515209638502E-2</v>
+      </c>
+      <c r="I25">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="J25">
+        <v>78.317999999999998</v>
+      </c>
+      <c r="K25">
+        <v>3296</v>
+      </c>
+      <c r="L25">
+        <v>88.586349089999999</v>
+      </c>
+      <c r="M25">
+        <v>99315</v>
+      </c>
+      <c r="N25">
+        <v>166232</v>
+      </c>
+      <c r="O25">
+        <v>2.9796866642675698E-3</v>
+      </c>
+      <c r="P25">
+        <v>4.7728829887655602E-2</v>
+      </c>
+      <c r="Q25">
+        <v>5.0708516551923197E-2</v>
+      </c>
+      <c r="R25">
+        <v>34281</v>
+      </c>
+      <c r="T25">
+        <v>6.9</v>
+      </c>
+      <c r="U25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V25">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X25">
+        <v>36498.7614596899</v>
+      </c>
+      <c r="Y25">
+        <v>28585.1</v>
+      </c>
+      <c r="Z25">
+        <v>76.5</v>
+      </c>
+      <c r="AA25">
+        <v>425.2</v>
+      </c>
+      <c r="AB25">
+        <v>414.9</v>
+      </c>
+      <c r="AC25">
+        <v>490</v>
+      </c>
+      <c r="AD25">
+        <v>543.5</v>
+      </c>
+      <c r="AE25">
+        <v>5.9951999999999996</v>
+      </c>
+      <c r="AF25">
+        <v>24323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.08</v>
+      </c>
+      <c r="D26">
+        <v>4.4404018505662002E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>-5.70725127897663E-3</v>
+      </c>
+      <c r="G26">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="H26">
+        <v>5.0111269784638597E-2</v>
+      </c>
+      <c r="I26">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>81.873999999999995</v>
+      </c>
+      <c r="K26">
+        <v>3190</v>
+      </c>
+      <c r="L26">
+        <v>83.897144499999996</v>
+      </c>
+      <c r="M26">
+        <v>119367</v>
+      </c>
+      <c r="N26">
+        <v>187154</v>
+      </c>
+      <c r="O26">
+        <v>2.5205459041146702E-3</v>
+      </c>
+      <c r="P26">
+        <v>4.7434377695117498E-2</v>
+      </c>
+      <c r="Q26">
+        <v>4.9954923599232197E-2</v>
+      </c>
+      <c r="R26">
+        <v>36037</v>
+      </c>
+      <c r="T26">
+        <v>6.91</v>
+      </c>
+      <c r="U26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V26">
+        <v>2.7E-2</v>
+      </c>
+      <c r="W26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X26">
+        <v>39896.792632581702</v>
+      </c>
+      <c r="Y26">
+        <v>32665.1</v>
+      </c>
+      <c r="Z26">
+        <v>80.58</v>
+      </c>
+      <c r="AA26">
+        <v>459.5</v>
+      </c>
+      <c r="AB26">
+        <v>437.7</v>
+      </c>
+      <c r="AC26">
+        <v>511.5</v>
+      </c>
+      <c r="AD26">
+        <v>577.5</v>
+      </c>
+      <c r="AE26">
+        <v>6.2778</v>
+      </c>
+      <c r="AF26">
+        <v>25443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2013</v>
+      </c>
+      <c r="B27">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.08</v>
+      </c>
+      <c r="D27">
+        <v>6.2781996083328004E-2</v>
+      </c>
+      <c r="E27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.6200925812091899E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="H27">
+        <v>4.6581070271236001E-2</v>
+      </c>
+      <c r="I27">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J27">
+        <v>87.179000000000002</v>
+      </c>
+      <c r="K27">
+        <v>3426</v>
+      </c>
+      <c r="L27">
+        <v>77.257925670000006</v>
+      </c>
+      <c r="M27">
+        <v>138661</v>
+      </c>
+      <c r="N27">
+        <v>211856</v>
+      </c>
+      <c r="O27">
+        <v>1.9463136911822099E-2</v>
+      </c>
+      <c r="P27">
+        <v>4.6311196591572699E-2</v>
+      </c>
+      <c r="Q27">
+        <v>6.5774333503394899E-2</v>
+      </c>
+      <c r="R27">
+        <v>38487</v>
+      </c>
+      <c r="T27">
+        <v>6.9</v>
+      </c>
+      <c r="U27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V27">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="W27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X27">
+        <v>42442.560708427402</v>
+      </c>
+      <c r="Y27">
+        <v>37001</v>
+      </c>
+      <c r="Z27">
+        <v>81.44</v>
+      </c>
+      <c r="AA27">
+        <v>479.1</v>
+      </c>
+      <c r="AB27">
+        <v>473.1</v>
+      </c>
+      <c r="AC27">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="AD27">
+        <v>594</v>
+      </c>
+      <c r="AE27">
+        <v>6.6966999999999999</v>
+      </c>
+      <c r="AF27">
+        <v>26951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>5.0635236003149203E-2</v>
+      </c>
+      <c r="E28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F28">
+        <v>8.0602683326422495E-3</v>
+      </c>
+      <c r="G28">
+        <v>2.81E-2</v>
+      </c>
+      <c r="H28">
+        <v>4.2574967670506898E-2</v>
+      </c>
+      <c r="I28">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J28">
+        <v>91.706999999999894</v>
+      </c>
+      <c r="K28">
+        <v>3728</v>
+      </c>
+      <c r="L28">
+        <v>72.429937370000005</v>
+      </c>
+      <c r="M28">
+        <v>160279</v>
+      </c>
+      <c r="N28">
+        <v>228004</v>
+      </c>
+      <c r="O28">
+        <v>8.9096129505356406E-3</v>
+      </c>
+      <c r="P28">
+        <v>4.4242321530987297E-2</v>
+      </c>
+      <c r="Q28">
+        <v>5.3151934481523E-2</v>
+      </c>
+      <c r="R28">
+        <v>40588</v>
+      </c>
+      <c r="T28">
+        <v>6.9</v>
+      </c>
+      <c r="U28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V28">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="W28">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="X28">
+        <v>45112.695868363298</v>
+      </c>
+      <c r="Y28">
+        <v>41371.5</v>
+      </c>
+      <c r="Z28">
+        <v>82.58</v>
+      </c>
+      <c r="AA28">
+        <v>524.29999999999995</v>
+      </c>
+      <c r="AB28">
+        <v>505.1</v>
+      </c>
+      <c r="AC28">
+        <v>575</v>
+      </c>
+      <c r="AD28">
+        <v>627.70000000000005</v>
+      </c>
+      <c r="AE28">
+        <v>7.1757</v>
+      </c>
+      <c r="AF28">
+        <v>28412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2015</v>
+      </c>
+      <c r="B29">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="C29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.9101246606694001E-2</v>
+      </c>
+      <c r="E29">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F29">
+        <v>-9.3157756349546601E-3</v>
+      </c>
+      <c r="G29">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="H29">
+        <v>3.8417022241648599E-2</v>
+      </c>
+      <c r="I29">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="J29">
+        <v>94.415000000000006</v>
+      </c>
+      <c r="K29">
+        <v>3742</v>
+      </c>
+      <c r="L29">
+        <v>63.928073320000003</v>
+      </c>
+      <c r="M29">
+        <v>186305</v>
+      </c>
+      <c r="N29">
+        <v>228031</v>
+      </c>
+      <c r="O29">
+        <v>6.1369697801068402E-3</v>
+      </c>
+      <c r="P29">
+        <v>4.1305418836445597E-2</v>
+      </c>
+      <c r="Q29">
+        <v>4.7442388616552401E-2</v>
+      </c>
+      <c r="R29">
+        <v>42560</v>
+      </c>
+      <c r="T29">
+        <v>6.92</v>
+      </c>
+      <c r="U29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V29">
+        <v>0.03</v>
+      </c>
+      <c r="W29">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="X29">
+        <v>45462.055817401902</v>
+      </c>
+      <c r="Y29">
+        <v>42923</v>
+      </c>
+      <c r="Z29">
+        <v>96.29</v>
+      </c>
+      <c r="AA29">
+        <v>478.7</v>
+      </c>
+      <c r="AB29">
+        <v>522</v>
+      </c>
+      <c r="AC29">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="AD29">
+        <v>586.1</v>
+      </c>
+      <c r="AE29">
+        <v>7.8201999999999998</v>
+      </c>
+      <c r="AF29">
+        <v>29889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2016</v>
+      </c>
+      <c r="B30">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.06</v>
+      </c>
+      <c r="D30">
+        <v>3.9255338733645402E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30">
+        <v>4.7434418064606701E-3</v>
+      </c>
+      <c r="G30">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.4511896927184697E-2</v>
+      </c>
+      <c r="I30">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <v>98.194999999999894</v>
+      </c>
+      <c r="K30">
+        <v>3924</v>
+      </c>
+      <c r="L30">
+        <v>62.659214630000001</v>
+      </c>
+      <c r="M30">
+        <v>191109</v>
+      </c>
+      <c r="N30">
+        <v>234533</v>
+      </c>
+      <c r="O30">
+        <v>4.0716163364654598E-3</v>
+      </c>
+      <c r="P30">
+        <v>3.7667250960537198E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.1738867297002699E-2</v>
+      </c>
+      <c r="R30">
+        <v>44374</v>
+      </c>
+      <c r="T30">
+        <v>6.94</v>
+      </c>
+      <c r="U30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="X30">
+        <v>43937.776872549497</v>
+      </c>
+      <c r="Y30">
+        <v>43144.7</v>
+      </c>
+      <c r="Z30">
+        <v>96.89</v>
+      </c>
+      <c r="AA30">
+        <v>461.9</v>
+      </c>
+      <c r="AB30">
+        <v>522.9</v>
+      </c>
+      <c r="AC30">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="AD30">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="AE30">
+        <v>7.9023000000000003</v>
+      </c>
+      <c r="AF30">
+        <v>30905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.6778119081392899E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>-4.3929778318963003E-3</v>
+      </c>
+      <c r="G31">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.11710969132892E-2</v>
+      </c>
+      <c r="I31">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J31">
+        <v>100.86</v>
+      </c>
+      <c r="K31">
+        <v>4229</v>
+      </c>
+      <c r="L31">
+        <v>63.99266738</v>
+      </c>
+      <c r="M31">
+        <v>210521</v>
+      </c>
+      <c r="N31">
+        <v>259185</v>
+      </c>
+      <c r="O31">
+        <v>7.5490530479761803E-3</v>
+      </c>
+      <c r="P31">
+        <v>3.3555950053652903E-2</v>
+      </c>
+      <c r="Q31">
+        <v>4.1105003101629102E-2</v>
+      </c>
+      <c r="R31">
+        <v>46236</v>
+      </c>
+      <c r="T31">
+        <v>6.97</v>
+      </c>
+      <c r="U31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X31">
+        <v>45939.420979575603</v>
+      </c>
+      <c r="Y31">
+        <v>46334.5</v>
+      </c>
+      <c r="Z31">
+        <v>96.6</v>
+      </c>
+      <c r="AA31">
+        <v>459.7</v>
+      </c>
+      <c r="AB31">
+        <v>541.79999999999995</v>
+      </c>
+      <c r="AC31">
+        <v>569.29999999999995</v>
+      </c>
+      <c r="AD31">
+        <v>565</v>
+      </c>
+      <c r="AE31">
+        <v>8.1137999999999995</v>
+      </c>
+      <c r="AF31">
+        <v>32367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.49579643808577E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>-1.37955974233431E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="H32">
+        <v>2.8753561804200901E-2</v>
+      </c>
+      <c r="I32">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J32">
+        <v>102.38</v>
+      </c>
+      <c r="K32">
+        <v>4321</v>
+      </c>
+      <c r="L32">
+        <v>62.342053960000001</v>
+      </c>
+      <c r="M32">
+        <v>222251</v>
+      </c>
+      <c r="N32">
+        <v>278388</v>
+      </c>
+      <c r="O32">
+        <v>1.2131699382169601E-2</v>
+      </c>
+      <c r="P32">
+        <v>2.9240364429547999E-2</v>
+      </c>
+      <c r="Q32">
+        <v>4.1372063811717603E-2</v>
+      </c>
+      <c r="R32">
+        <v>48189</v>
+      </c>
+      <c r="T32">
+        <v>6.97</v>
+      </c>
+      <c r="U32">
+        <v>2.3E-2</v>
+      </c>
+      <c r="V32">
+        <v>4.7E-2</v>
+      </c>
+      <c r="W32">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X32">
+        <v>47815.100605587002</v>
+      </c>
+      <c r="Y32">
+        <v>48953.1</v>
+      </c>
+      <c r="Z32">
+        <v>93.58</v>
+      </c>
+      <c r="AA32">
+        <v>443.1</v>
+      </c>
+      <c r="AB32">
+        <v>552.6</v>
+      </c>
+      <c r="AC32">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="AD32">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="AE32">
+        <v>8.5337999999999994</v>
+      </c>
+      <c r="AF32">
+        <v>33759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.04</v>
+      </c>
+      <c r="D33">
+        <v>1.4583510992199599E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.04</v>
+      </c>
+      <c r="F33">
+        <v>-1.2990790433639701E-2</v>
+      </c>
+      <c r="G33">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>2.7574301425839401E-2</v>
+      </c>
+      <c r="I33">
+        <v>2E-3</v>
+      </c>
+      <c r="J33">
+        <v>103.884</v>
+      </c>
+      <c r="K33">
+        <v>4132</v>
+      </c>
+      <c r="L33">
+        <v>60.134698210000003</v>
+      </c>
+      <c r="M33">
+        <v>221529</v>
+      </c>
+      <c r="N33">
+        <v>282587</v>
+      </c>
+      <c r="O33">
+        <v>-3.1441226781954799E-3</v>
+      </c>
+      <c r="P33">
+        <v>2.50648329324577E-2</v>
+      </c>
+      <c r="Q33">
+        <v>2.1920710254262201E-2</v>
+      </c>
+      <c r="R33">
+        <v>49257</v>
+      </c>
+      <c r="T33">
+        <v>6.97</v>
+      </c>
+      <c r="U33">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X33">
+        <v>47338.281159755097</v>
+      </c>
+      <c r="Y33">
+        <v>49176.9</v>
+      </c>
+      <c r="Z33">
+        <v>97.4</v>
+      </c>
+      <c r="AA33">
+        <v>445.1</v>
+      </c>
+      <c r="AB33">
+        <v>552.6</v>
+      </c>
+      <c r="AC33">
+        <v>556.6</v>
+      </c>
+      <c r="AD33">
+        <v>588.4</v>
+      </c>
+      <c r="AE33">
+        <v>8.6428999999999903</v>
+      </c>
+      <c r="AF33">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2020</v>
+      </c>
+      <c r="B34">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>6.6869987503865797E-3</v>
+      </c>
+      <c r="E34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F34">
+        <v>-2.1123370879504499E-2</v>
+      </c>
+      <c r="G34">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.7810369629891099E-2</v>
+      </c>
+      <c r="I34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>104.581</v>
+      </c>
+      <c r="K34">
+        <v>3005</v>
+      </c>
+      <c r="L34">
+        <v>57.674904789999999</v>
+      </c>
+      <c r="M34">
+        <v>246307</v>
+      </c>
+      <c r="N34">
+        <v>253112</v>
+      </c>
+      <c r="O34">
+        <v>-0.112929001384743</v>
+      </c>
+      <c r="P34">
+        <v>2.1495011400438701E-2</v>
+      </c>
+      <c r="Q34">
+        <v>-9.1433989984304603E-2</v>
+      </c>
+      <c r="R34">
+        <v>44953</v>
+      </c>
+      <c r="T34">
+        <v>6.97</v>
+      </c>
+      <c r="U34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X34">
+        <v>51267.821114733997</v>
+      </c>
+      <c r="Y34">
+        <v>53616.4</v>
+      </c>
+      <c r="Z34">
+        <v>95.819999999999894</v>
+      </c>
+      <c r="AA34">
+        <v>454.2</v>
+      </c>
+      <c r="AB34">
+        <v>545</v>
+      </c>
+      <c r="AC34">
+        <v>543.1</v>
+      </c>
+      <c r="AD34">
+        <v>563.79999999999995</v>
+      </c>
+      <c r="AE34">
+        <v>8.6615000000000002</v>
+      </c>
+      <c r="AF34">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>8.9670478621579602E-3</v>
+      </c>
+      <c r="E35">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>-2.05418645015478E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.95089123637058E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J35">
+        <v>105.523</v>
+      </c>
+      <c r="K35">
+        <v>3304</v>
+      </c>
+      <c r="L35">
+        <v>59.595641149999999</v>
+      </c>
+      <c r="M35">
+        <v>261279</v>
+      </c>
+      <c r="N35">
+        <v>279206</v>
+      </c>
+      <c r="O35">
+        <v>4.03487839358335E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.8965114444766101E-2</v>
+      </c>
+      <c r="Q35">
+        <v>5.9313898380599597E-2</v>
+      </c>
+      <c r="R35">
+        <v>47700</v>
+      </c>
+      <c r="T35">
+        <v>6.92</v>
+      </c>
+      <c r="U35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X35">
+        <v>53181.391734503297</v>
+      </c>
+      <c r="Y35">
+        <v>56118.6</v>
+      </c>
+      <c r="Z35">
+        <v>92.5</v>
+      </c>
+      <c r="AA35">
+        <v>499.1</v>
+      </c>
+      <c r="AB35">
+        <v>552.6</v>
+      </c>
+      <c r="AC35">
+        <v>557.70000000000005</v>
+      </c>
+      <c r="AD35">
+        <v>664.6</v>
+      </c>
+      <c r="AE35">
+        <v>8.8813999999999904</v>
+      </c>
+      <c r="AF35">
+        <v>33973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2022</v>
+      </c>
+      <c r="B36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.03</v>
+      </c>
+      <c r="D36">
+        <v>3.0747823280249099E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="F36">
+        <v>-1.75801858558929E-3</v>
+      </c>
+      <c r="G36">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.2505841865838402E-2</v>
+      </c>
+      <c r="I36">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J36">
+        <v>108.818</v>
+      </c>
+      <c r="K36">
+        <v>3405</v>
+      </c>
+      <c r="L36">
+        <v>59.585246269999999</v>
+      </c>
+      <c r="M36">
+        <v>274686</v>
+      </c>
+      <c r="N36">
+        <v>304097</v>
+      </c>
+      <c r="O36">
+        <v>1.8643736003300701E-2</v>
+      </c>
+      <c r="P36">
+        <v>1.6780066662867198E-2</v>
+      </c>
+      <c r="Q36">
+        <v>3.5423802666167903E-2</v>
+      </c>
+      <c r="R36">
+        <v>49420</v>
+      </c>
+      <c r="T36">
+        <v>6.91</v>
+      </c>
+      <c r="U36">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="V36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="X36">
+        <v>52118.0319432447</v>
+      </c>
+      <c r="Y36">
+        <v>56713.8</v>
+      </c>
+      <c r="Z36">
+        <v>104</v>
+      </c>
+      <c r="AA36">
+        <v>526.5</v>
+      </c>
+      <c r="AB36">
+        <v>578.70000000000005</v>
+      </c>
+      <c r="AC36">
+        <v>578.6</v>
+      </c>
+      <c r="AD36">
+        <v>749.5</v>
+      </c>
+      <c r="AE36">
+        <v>9.2049000000000003</v>
+      </c>
+      <c r="AF36">
+        <v>35116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.03</v>
+      </c>
+      <c r="D37">
+        <v>2.0960934007395501E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>-1.54707177224329E-2</v>
+      </c>
+      <c r="G37">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.6431651729828401E-2</v>
+      </c>
+      <c r="I37">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>111.123</v>
+      </c>
+      <c r="K37">
+        <v>3608</v>
+      </c>
+      <c r="L37">
+        <v>60.643507669999998</v>
+      </c>
+      <c r="M37">
+        <v>279582</v>
+      </c>
+      <c r="N37">
+        <v>311886</v>
+      </c>
+      <c r="O37">
+        <v>1.5703879580282701E-2</v>
+      </c>
+      <c r="P37">
+        <v>1.4648280491527801E-2</v>
+      </c>
+      <c r="Q37">
+        <v>3.0352160071810599E-2</v>
+      </c>
+      <c r="R37">
+        <v>50943</v>
+      </c>
+      <c r="T37">
+        <v>7.11</v>
+      </c>
+      <c r="U37">
+        <v>7.0999999999999897E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.05</v>
+      </c>
+      <c r="W37">
+        <v>0.05</v>
+      </c>
+      <c r="X37">
+        <v>60273.210766447897</v>
+      </c>
+      <c r="Y37">
+        <v>66977.399999999994</v>
+      </c>
+      <c r="Z37">
+        <v>103.44</v>
+      </c>
+      <c r="AA37">
+        <v>522.70000000000005</v>
+      </c>
+      <c r="AB37">
+        <v>589.6</v>
+      </c>
+      <c r="AC37">
+        <v>586.4</v>
+      </c>
+      <c r="AD37">
+        <v>693.6</v>
+      </c>
+      <c r="AE37">
+        <v>9.3148</v>
+      </c>
+      <c r="AF37">
+        <v>36231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.03</v>
+      </c>
+      <c r="D38">
+        <v>9.5078632317441902E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>5.4179376954082703E-2</v>
+      </c>
+      <c r="G38">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H38">
+        <v>4.0899255363359199E-2</v>
+      </c>
+      <c r="I38">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="J38">
+        <v>122.20699999999999</v>
+      </c>
+      <c r="K38">
+        <v>3182</v>
+      </c>
+      <c r="L38">
+        <v>60.762663070000002</v>
+      </c>
+      <c r="M38">
+        <v>303470</v>
+      </c>
+      <c r="N38">
+        <v>322193</v>
+      </c>
+      <c r="O38">
+        <v>-5.1888592621636897E-3</v>
+      </c>
+      <c r="P38">
+        <v>1.24646057275668E-2</v>
+      </c>
+      <c r="Q38">
+        <v>7.27574646540318E-3</v>
+      </c>
+      <c r="R38">
+        <v>51315</v>
+      </c>
+      <c r="T38">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="U38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W38">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="X38">
+        <v>65716.775634783597</v>
+      </c>
+      <c r="Y38">
+        <v>80310.5</v>
+      </c>
+      <c r="Z38">
+        <v>104.2</v>
+      </c>
+      <c r="AA38">
+        <v>543.4</v>
+      </c>
+      <c r="AB38">
+        <v>624.9</v>
+      </c>
+      <c r="AC38">
+        <v>587.4</v>
+      </c>
+      <c r="AD38">
+        <v>701.8</v>
+      </c>
+      <c r="AE38">
+        <v>9.7247912620000001</v>
+      </c>
+      <c r="AF38">
+        <v>36443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Eviews/data_finprog_bo.xlsx
+++ b/Eviews/data_finprog_bo.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0AE7A-E9CF-4D17-A0EA-BCD3B588A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D8787-77C1-4151-8E95-EC76E3D068A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Labels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>CPRIVR</t>
   </si>
@@ -120,12 +132,108 @@
   <si>
     <t>TC</t>
   </si>
+  <si>
+    <t>pibr</t>
+  </si>
+  <si>
+    <t>cpriv</t>
+  </si>
+  <si>
+    <t>iprivr</t>
+  </si>
+  <si>
+    <t>ipasr</t>
+  </si>
+  <si>
+    <t>iactr</t>
+  </si>
+  <si>
+    <t>ipc</t>
+  </si>
+  <si>
+    <t>def_ipub</t>
+  </si>
+  <si>
+    <t>def_impor</t>
+  </si>
+  <si>
+    <t>def_cpub</t>
+  </si>
+  <si>
+    <t>inc_sal</t>
+  </si>
+  <si>
+    <t>pib_gap</t>
+  </si>
+  <si>
+    <t>itcr</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>dxy</t>
+  </si>
+  <si>
+    <t>inf_mundo</t>
+  </si>
+  <si>
+    <t>ib</t>
+  </si>
+  <si>
+    <t>emi</t>
+  </si>
+  <si>
+    <t>inf_gap</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Calculo</t>
+  </si>
+  <si>
+    <t>Inflacion</t>
+  </si>
+  <si>
+    <t>Expectativas de inflacion</t>
+  </si>
+  <si>
+    <t>Inflacion mundial</t>
+  </si>
+  <si>
+    <t>Tasa de interes pasiva real?</t>
+  </si>
+  <si>
+    <t>Indice de precios al consumidor</t>
+  </si>
+  <si>
+    <t>Indice de Tipo de Cambio Real</t>
+  </si>
+  <si>
+    <t>Agregado M3</t>
+  </si>
+  <si>
+    <t>Deflactor del PIB ??</t>
+  </si>
+  <si>
+    <t>PIB real</t>
+  </si>
+  <si>
+    <t>Tipo de Cambio Nominal</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +241,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,8 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +564,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3854,15 +3979,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF34A5B-3FAD-417E-8292-EFB3A12651A8}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3917,47 +4042,47 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -3976,20 +4101,20 @@
       <c r="R2">
         <v>14220</v>
       </c>
+      <c r="U2">
+        <v>0.255</v>
+      </c>
       <c r="V2">
-        <v>0.255</v>
-      </c>
-      <c r="W2">
         <v>0.254</v>
       </c>
+      <c r="AD2">
+        <v>0.68310000000000004</v>
+      </c>
       <c r="AE2">
-        <v>0.68310000000000004</v>
-      </c>
-      <c r="AF2">
         <v>11281</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1989</v>
       </c>
@@ -4008,20 +4133,20 @@
       <c r="R3">
         <v>14759</v>
       </c>
+      <c r="U3">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="V3">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="W3">
         <v>0.17299999999999999</v>
       </c>
+      <c r="AD3">
+        <v>0.83420000000000005</v>
+      </c>
       <c r="AE3">
-        <v>0.83420000000000005</v>
-      </c>
-      <c r="AF3">
         <v>11482</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -4049,17 +4174,20 @@
       <c r="R4">
         <v>15443</v>
       </c>
+      <c r="U4">
+        <v>0.24099999999999999</v>
+      </c>
       <c r="V4">
-        <v>0.24099999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="W4">
-        <v>0.24</v>
+        <v>3285.1453016669102</v>
       </c>
       <c r="X4">
-        <v>3285.1453016669102</v>
-      </c>
-      <c r="Y4">
         <v>668.1</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
       </c>
       <c r="AA4">
         <v>100</v>
@@ -4071,16 +4199,13 @@
         <v>100</v>
       </c>
       <c r="AD4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
         <v>11870</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1991</v>
       </c>
@@ -4132,44 +4257,44 @@
       <c r="R5">
         <v>16256</v>
       </c>
-      <c r="T5">
+      <c r="S5">
         <v>3.57</v>
+      </c>
+      <c r="U5">
+        <v>0.14599999999999999</v>
       </c>
       <c r="V5">
         <v>0.14599999999999999</v>
       </c>
       <c r="W5">
-        <v>0.14599999999999999</v>
+        <v>3329.3258909403098</v>
       </c>
       <c r="X5">
-        <v>3329.3258909403098</v>
+        <v>775.4</v>
       </c>
       <c r="Y5">
-        <v>775.4</v>
+        <v>89.72</v>
       </c>
       <c r="Z5">
-        <v>89.72</v>
+        <v>117.2</v>
       </c>
       <c r="AA5">
-        <v>117.2</v>
+        <v>121.4</v>
       </c>
       <c r="AB5">
-        <v>121.4</v>
+        <v>122</v>
       </c>
       <c r="AC5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD5">
-        <v>124</v>
+        <v>1.2314000000000001</v>
       </c>
       <c r="AE5">
-        <v>1.2314000000000001</v>
-      </c>
-      <c r="AF5">
         <v>12264</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -4221,44 +4346,44 @@
       <c r="R6">
         <v>16524</v>
       </c>
-      <c r="T6">
+      <c r="S6">
         <v>3.9</v>
+      </c>
+      <c r="U6">
+        <v>0.13200000000000001</v>
       </c>
       <c r="V6">
         <v>0.13200000000000001</v>
       </c>
       <c r="W6">
-        <v>0.13200000000000001</v>
+        <v>3619.6843660110399</v>
       </c>
       <c r="X6">
-        <v>3619.6843660110399</v>
+        <v>931.2</v>
       </c>
       <c r="Y6">
-        <v>931.2</v>
+        <v>86.54</v>
       </c>
       <c r="Z6">
-        <v>86.54</v>
+        <v>136.1</v>
       </c>
       <c r="AA6">
-        <v>136.1</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="AB6">
-        <v>137.69999999999999</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="AC6">
-        <v>140.69999999999999</v>
+        <v>139.9</v>
       </c>
       <c r="AD6">
-        <v>139.9</v>
+        <v>1.4564999999999999</v>
       </c>
       <c r="AE6">
-        <v>1.4564999999999999</v>
-      </c>
-      <c r="AF6">
         <v>12700</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1993</v>
       </c>
@@ -4310,44 +4435,44 @@
       <c r="R7">
         <v>17230</v>
       </c>
-      <c r="T7">
+      <c r="S7">
         <v>4.26</v>
       </c>
+      <c r="U7">
+        <v>0.17299999999999999</v>
+      </c>
       <c r="V7">
-        <v>0.17299999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="W7">
-        <v>0.17399999999999999</v>
+        <v>3737.1977240398301</v>
       </c>
       <c r="X7">
-        <v>3737.1977240398301</v>
+        <v>1050.9000000000001</v>
       </c>
       <c r="Y7">
-        <v>1050.9000000000001</v>
+        <v>93.04</v>
       </c>
       <c r="Z7">
-        <v>93.04</v>
+        <v>151.9</v>
       </c>
       <c r="AA7">
-        <v>151.9</v>
+        <v>147.9</v>
       </c>
       <c r="AB7">
-        <v>147.9</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="AC7">
-        <v>154.80000000000001</v>
+        <v>152.9</v>
       </c>
       <c r="AD7">
-        <v>152.9</v>
+        <v>1.6395999999999999</v>
       </c>
       <c r="AE7">
-        <v>1.6395999999999999</v>
-      </c>
-      <c r="AF7">
         <v>13123</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -4399,44 +4524,44 @@
       <c r="R8">
         <v>18034</v>
       </c>
-      <c r="T8">
+      <c r="S8">
         <v>4.62</v>
       </c>
+      <c r="U8">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="V8">
-        <v>0.17399999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="W8">
-        <v>0.17499999999999999</v>
+        <v>4707.3666273430299</v>
       </c>
       <c r="X8">
-        <v>4707.3666273430299</v>
+        <v>1436.5</v>
       </c>
       <c r="Y8">
-        <v>1436.5</v>
+        <v>91.15</v>
       </c>
       <c r="Z8">
-        <v>91.15</v>
+        <v>166</v>
       </c>
       <c r="AA8">
-        <v>166</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="AB8">
-        <v>158.80000000000001</v>
+        <v>169.6</v>
       </c>
       <c r="AC8">
-        <v>169.6</v>
+        <v>166.6</v>
       </c>
       <c r="AD8">
-        <v>166.6</v>
+        <v>1.8228</v>
       </c>
       <c r="AE8">
-        <v>1.8228</v>
-      </c>
-      <c r="AF8">
         <v>13508</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -4488,44 +4613,44 @@
       <c r="R9">
         <v>18877</v>
       </c>
-      <c r="T9">
+      <c r="S9">
         <v>4.8</v>
       </c>
+      <c r="U9">
+        <v>0.124</v>
+      </c>
       <c r="V9">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="W9">
-        <v>0.125</v>
+        <v>5049.9199534274503</v>
       </c>
       <c r="X9">
-        <v>5049.9199534274503</v>
+        <v>1734.9</v>
       </c>
       <c r="Y9">
-        <v>1734.9</v>
+        <v>84.14</v>
       </c>
       <c r="Z9">
-        <v>84.14</v>
+        <v>179</v>
       </c>
       <c r="AA9">
-        <v>179</v>
+        <v>175.8</v>
       </c>
       <c r="AB9">
-        <v>175.8</v>
+        <v>181.2</v>
       </c>
       <c r="AC9">
-        <v>181.2</v>
+        <v>178.4</v>
       </c>
       <c r="AD9">
-        <v>178.4</v>
+        <v>1.9945999999999999</v>
       </c>
       <c r="AE9">
-        <v>1.9945999999999999</v>
-      </c>
-      <c r="AF9">
         <v>13906</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -4577,44 +4702,44 @@
       <c r="R10">
         <v>19701</v>
       </c>
-      <c r="T10">
+      <c r="S10">
         <v>5.07</v>
       </c>
+      <c r="U10">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="V10">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W10">
-        <v>9.5000000000000001E-2</v>
+        <v>5076.8484064067297</v>
       </c>
       <c r="X10">
-        <v>5076.8484064067297</v>
+        <v>1882.8</v>
       </c>
       <c r="Y10">
-        <v>1882.8</v>
+        <v>87.22</v>
       </c>
       <c r="Z10">
-        <v>87.22</v>
+        <v>195.7</v>
       </c>
       <c r="AA10">
-        <v>195.7</v>
+        <v>196.4</v>
       </c>
       <c r="AB10">
-        <v>196.4</v>
+        <v>195.2</v>
       </c>
       <c r="AC10">
-        <v>195.2</v>
+        <v>193.1</v>
       </c>
       <c r="AD10">
-        <v>193.1</v>
+        <v>2.2227999999999999</v>
       </c>
       <c r="AE10">
-        <v>2.2227999999999999</v>
-      </c>
-      <c r="AF10">
         <v>14360</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -4666,44 +4791,44 @@
       <c r="R11">
         <v>20677</v>
       </c>
-      <c r="T11">
+      <c r="S11">
         <v>5.25</v>
       </c>
+      <c r="U11">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="V11">
-        <v>0.13500000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="W11">
-        <v>0.13600000000000001</v>
+        <v>5449.6993582941705</v>
       </c>
       <c r="X11">
-        <v>5449.6993582941705</v>
+        <v>2157.1</v>
       </c>
       <c r="Y11">
-        <v>2157.1</v>
+        <v>96.27</v>
       </c>
       <c r="Z11">
-        <v>96.27</v>
+        <v>199.6</v>
       </c>
       <c r="AA11">
-        <v>199.6</v>
+        <v>205.5</v>
       </c>
       <c r="AB11">
-        <v>205.5</v>
+        <v>203</v>
       </c>
       <c r="AC11">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="AD11">
-        <v>203.1</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="AE11">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="AF11">
         <v>15140</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -4758,47 +4883,47 @@
       <c r="R12">
         <v>21717</v>
       </c>
+      <c r="S12">
+        <v>5.51</v>
+      </c>
       <c r="T12">
-        <v>5.51</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="U12">
-        <v>0.13700000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="V12">
         <v>0.125</v>
       </c>
       <c r="W12">
-        <v>0.125</v>
+        <v>5853.1981317005802</v>
       </c>
       <c r="X12">
-        <v>5853.1981317005802</v>
+        <v>2418.6</v>
       </c>
       <c r="Y12">
-        <v>2418.6</v>
+        <v>98.7</v>
       </c>
       <c r="Z12">
-        <v>98.7</v>
+        <v>213.1</v>
       </c>
       <c r="AA12">
+        <v>220.5</v>
+      </c>
+      <c r="AB12">
         <v>213.1</v>
       </c>
-      <c r="AB12">
-        <v>220.5</v>
-      </c>
       <c r="AC12">
-        <v>213.1</v>
+        <v>207.2</v>
       </c>
       <c r="AD12">
-        <v>207.2</v>
+        <v>2.7572000000000001</v>
       </c>
       <c r="AE12">
-        <v>2.7572000000000001</v>
-      </c>
-      <c r="AF12">
         <v>15935</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -4853,47 +4978,47 @@
       <c r="R13">
         <v>21809</v>
       </c>
+      <c r="S13">
+        <v>5.8</v>
+      </c>
       <c r="T13">
-        <v>5.8</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="U13">
-        <v>0.13400000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="V13">
         <v>0.16200000000000001</v>
       </c>
       <c r="W13">
-        <v>0.16200000000000001</v>
+        <v>5676.8743400211097</v>
       </c>
       <c r="X13">
-        <v>5676.8743400211097</v>
+        <v>2419.1999999999998</v>
       </c>
       <c r="Y13">
-        <v>2419.1999999999998</v>
+        <v>99.94</v>
       </c>
       <c r="Z13">
-        <v>99.94</v>
+        <v>213.3</v>
       </c>
       <c r="AA13">
+        <v>226</v>
+      </c>
+      <c r="AB13">
         <v>213.3</v>
       </c>
-      <c r="AB13">
-        <v>226</v>
-      </c>
       <c r="AC13">
-        <v>213.3</v>
+        <v>215.4</v>
       </c>
       <c r="AD13">
-        <v>215.4</v>
+        <v>2.8593999999999999</v>
       </c>
       <c r="AE13">
-        <v>2.8593999999999999</v>
-      </c>
-      <c r="AF13">
         <v>16375</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -4948,47 +5073,47 @@
       <c r="R14">
         <v>22356</v>
       </c>
+      <c r="S14">
+        <v>6.17</v>
+      </c>
       <c r="T14">
-        <v>6.17</v>
+        <v>0.12</v>
       </c>
       <c r="U14">
-        <v>0.12</v>
+        <v>0.182</v>
       </c>
       <c r="V14">
         <v>0.182</v>
       </c>
       <c r="W14">
-        <v>0.182</v>
+        <v>5500.9190133654001</v>
       </c>
       <c r="X14">
-        <v>5500.9190133654001</v>
+        <v>2424.1999999999998</v>
       </c>
       <c r="Y14">
-        <v>2424.1999999999998</v>
+        <v>109.64</v>
       </c>
       <c r="Z14">
-        <v>109.64</v>
+        <v>236.5</v>
       </c>
       <c r="AA14">
+        <v>236.7</v>
+      </c>
+      <c r="AB14">
         <v>236.5</v>
       </c>
-      <c r="AB14">
-        <v>236.7</v>
-      </c>
       <c r="AC14">
-        <v>236.5</v>
+        <v>222.2</v>
       </c>
       <c r="AD14">
-        <v>222.2</v>
+        <v>2.9678</v>
       </c>
       <c r="AE14">
-        <v>2.9678</v>
-      </c>
-      <c r="AF14">
         <v>16752</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -5043,47 +5168,47 @@
       <c r="R15">
         <v>22733</v>
       </c>
+      <c r="S15">
+        <v>6.6</v>
+      </c>
       <c r="T15">
-        <v>6.6</v>
+        <v>0.104</v>
       </c>
       <c r="U15">
-        <v>0.104</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="V15">
         <v>0.17899999999999999</v>
       </c>
       <c r="W15">
-        <v>0.17899999999999999</v>
+        <v>6071.0029903095901</v>
       </c>
       <c r="X15">
-        <v>6071.0029903095901</v>
+        <v>2700.2</v>
       </c>
       <c r="Y15">
-        <v>2700.2</v>
+        <v>115.02</v>
       </c>
       <c r="Z15">
-        <v>115.02</v>
+        <v>242.9</v>
       </c>
       <c r="AA15">
+        <v>238.7</v>
+      </c>
+      <c r="AB15">
         <v>242.9</v>
       </c>
-      <c r="AB15">
-        <v>238.7</v>
-      </c>
       <c r="AC15">
-        <v>242.9</v>
+        <v>224</v>
       </c>
       <c r="AD15">
-        <v>224</v>
+        <v>3.2322000000000002</v>
       </c>
       <c r="AE15">
-        <v>3.2322000000000002</v>
-      </c>
-      <c r="AF15">
         <v>16965</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -5138,47 +5263,47 @@
       <c r="R16">
         <v>23298</v>
       </c>
+      <c r="S16">
+        <v>7.16</v>
+      </c>
       <c r="T16">
-        <v>7.16</v>
+        <v>0.113</v>
       </c>
       <c r="U16">
-        <v>0.113</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="V16">
         <v>0.19800000000000001</v>
       </c>
       <c r="W16">
-        <v>0.19800000000000001</v>
+        <v>6666.0814221441897</v>
       </c>
       <c r="X16">
-        <v>6666.0814221441897</v>
+        <v>3037.4</v>
       </c>
       <c r="Y16">
-        <v>3037.4</v>
+        <v>111.01</v>
       </c>
       <c r="Z16">
-        <v>111.01</v>
+        <v>230.6</v>
       </c>
       <c r="AA16">
-        <v>230.6</v>
+        <v>241.7</v>
       </c>
       <c r="AB16">
-        <v>241.7</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="AC16">
-        <v>268.39999999999998</v>
+        <v>229</v>
       </c>
       <c r="AD16">
-        <v>229</v>
+        <v>3.3431999999999999</v>
       </c>
       <c r="AE16">
-        <v>3.3431999999999999</v>
-      </c>
-      <c r="AF16">
         <v>17312</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2003</v>
       </c>
@@ -5233,47 +5358,47 @@
       <c r="R17">
         <v>23929</v>
       </c>
+      <c r="S17">
+        <v>7.65</v>
+      </c>
       <c r="T17">
-        <v>7.65</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="U17">
-        <v>8.8999999999999996E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="V17">
         <v>0.16900000000000001</v>
       </c>
       <c r="W17">
-        <v>0.16900000000000001</v>
+        <v>7442.3564189189101</v>
       </c>
       <c r="X17">
-        <v>7442.3564189189101</v>
+        <v>3524.7</v>
       </c>
       <c r="Y17">
-        <v>3524.7</v>
+        <v>95.709999999999894</v>
       </c>
       <c r="Z17">
-        <v>95.709999999999894</v>
+        <v>218.2</v>
       </c>
       <c r="AA17">
-        <v>218.2</v>
+        <v>249.2</v>
       </c>
       <c r="AB17">
-        <v>249.2</v>
+        <v>282.5</v>
       </c>
       <c r="AC17">
-        <v>282.5</v>
+        <v>235.8</v>
       </c>
       <c r="AD17">
-        <v>235.8</v>
+        <v>3.6474000000000002</v>
       </c>
       <c r="AE17">
-        <v>3.6474000000000002</v>
-      </c>
-      <c r="AF17">
         <v>17638</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -5328,47 +5453,47 @@
       <c r="R18">
         <v>24928</v>
       </c>
+      <c r="S18">
+        <v>7.93</v>
+      </c>
       <c r="T18">
-        <v>7.93</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U18">
-        <v>6.5000000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="V18">
         <v>0.10100000000000001</v>
       </c>
       <c r="W18">
-        <v>0.10100000000000001</v>
+        <v>8643.9685967426194</v>
       </c>
       <c r="X18">
-        <v>8643.9685967426194</v>
+        <v>4283</v>
       </c>
       <c r="Y18">
-        <v>4283</v>
+        <v>87.36</v>
       </c>
       <c r="Z18">
-        <v>87.36</v>
+        <v>206.1</v>
       </c>
       <c r="AA18">
-        <v>206.1</v>
+        <v>260.5</v>
       </c>
       <c r="AB18">
-        <v>260.5</v>
+        <v>305.8</v>
       </c>
       <c r="AC18">
-        <v>305.8</v>
+        <v>251.1</v>
       </c>
       <c r="AD18">
-        <v>251.1</v>
+        <v>3.9138999999999999</v>
       </c>
       <c r="AE18">
-        <v>3.9138999999999999</v>
-      </c>
-      <c r="AF18">
         <v>18151</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -5423,47 +5548,47 @@
       <c r="R19">
         <v>26030</v>
       </c>
+      <c r="S19">
+        <v>8.0399999999999903</v>
+      </c>
       <c r="T19">
-        <v>8.0399999999999903</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="U19">
-        <v>4.8000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="V19">
         <v>7.8E-2</v>
       </c>
       <c r="W19">
-        <v>7.8E-2</v>
+        <v>11887.768843061</v>
       </c>
       <c r="X19">
-        <v>11887.768843061</v>
+        <v>6179.5</v>
       </c>
       <c r="Y19">
-        <v>6179.5</v>
+        <v>87.16</v>
       </c>
       <c r="Z19">
-        <v>87.16</v>
+        <v>260.7</v>
       </c>
       <c r="AA19">
-        <v>260.7</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="AB19">
-        <v>272.39999999999998</v>
+        <v>324.8</v>
       </c>
       <c r="AC19">
-        <v>324.8</v>
+        <v>295</v>
       </c>
       <c r="AD19">
-        <v>295</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="AE19">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="AF19">
         <v>18755</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -5518,47 +5643,47 @@
       <c r="R20">
         <v>27279</v>
       </c>
+      <c r="S20">
+        <v>7.95</v>
+      </c>
       <c r="T20">
-        <v>7.95</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="U20">
-        <v>3.5000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="V20">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="W20">
-        <v>6.2E-2</v>
+        <v>16083.003372928501</v>
       </c>
       <c r="X20">
-        <v>16083.003372928501</v>
+        <v>8773.6</v>
       </c>
       <c r="Y20">
-        <v>8773.6</v>
+        <v>86.59</v>
       </c>
       <c r="Z20">
-        <v>86.59</v>
+        <v>302.2</v>
       </c>
       <c r="AA20">
-        <v>302.2</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="AB20">
-        <v>295.10000000000002</v>
+        <v>395.9</v>
       </c>
       <c r="AC20">
-        <v>395.9</v>
+        <v>341.2</v>
       </c>
       <c r="AD20">
-        <v>341.2</v>
+        <v>4.2659000000000002</v>
       </c>
       <c r="AE20">
-        <v>4.2659000000000002</v>
-      </c>
-      <c r="AF20">
         <v>19519</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -5613,47 +5738,47 @@
       <c r="R21">
         <v>28524</v>
       </c>
+      <c r="S21">
+        <v>7.78</v>
+      </c>
       <c r="T21">
-        <v>7.78</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="U21">
-        <v>2.9000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="V21">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="W21">
-        <v>3.2000000000000001E-2</v>
+        <v>23138.689724195599</v>
       </c>
       <c r="X21">
-        <v>23138.689724195599</v>
+        <v>14102.8</v>
       </c>
       <c r="Y21">
-        <v>14102.8</v>
+        <v>80.89</v>
       </c>
       <c r="Z21">
-        <v>80.89</v>
+        <v>353.3</v>
       </c>
       <c r="AA21">
-        <v>353.3</v>
+        <v>320.3</v>
       </c>
       <c r="AB21">
-        <v>320.3</v>
+        <v>426.9</v>
       </c>
       <c r="AC21">
-        <v>426.9</v>
+        <v>383.8</v>
       </c>
       <c r="AD21">
-        <v>383.8</v>
+        <v>4.5205000000000002</v>
       </c>
       <c r="AE21">
-        <v>4.5205000000000002</v>
-      </c>
-      <c r="AF21">
         <v>20333</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -5708,47 +5833,47 @@
       <c r="R22">
         <v>30278</v>
       </c>
+      <c r="S22">
+        <v>7.17</v>
+      </c>
       <c r="T22">
-        <v>7.17</v>
+        <v>2.7E-2</v>
       </c>
       <c r="U22">
-        <v>2.7E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="V22">
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="W22">
-        <v>-0.05</v>
+        <v>25000.4400633691</v>
       </c>
       <c r="X22">
-        <v>25000.4400633691</v>
+        <v>17043.3</v>
       </c>
       <c r="Y22">
-        <v>17043.3</v>
+        <v>76.78</v>
       </c>
       <c r="Z22">
-        <v>76.78</v>
+        <v>382.8</v>
       </c>
       <c r="AA22">
-        <v>382.8</v>
+        <v>350.2</v>
       </c>
       <c r="AB22">
-        <v>350.2</v>
+        <v>442.4</v>
       </c>
       <c r="AC22">
-        <v>442.4</v>
+        <v>455.2</v>
       </c>
       <c r="AD22">
-        <v>455.2</v>
+        <v>4.8140000000000001</v>
       </c>
       <c r="AE22">
-        <v>4.8140000000000001</v>
-      </c>
-      <c r="AF22">
         <v>21448</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -5803,47 +5928,47 @@
       <c r="R23">
         <v>31294</v>
       </c>
+      <c r="S23">
+        <v>6.99</v>
+      </c>
       <c r="T23">
-        <v>6.99</v>
+        <v>0.01</v>
       </c>
       <c r="U23">
-        <v>0.01</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="V23">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="W23">
-        <v>-0.02</v>
+        <v>27640.268613480399</v>
       </c>
       <c r="X23">
-        <v>27640.268613480399</v>
+        <v>18892.400000000001</v>
       </c>
       <c r="Y23">
-        <v>18892.400000000001</v>
+        <v>80.58</v>
       </c>
       <c r="Z23">
-        <v>80.58</v>
+        <v>359.2</v>
       </c>
       <c r="AA23">
-        <v>359.2</v>
+        <v>358.6</v>
       </c>
       <c r="AB23">
-        <v>358.6</v>
+        <v>412.7</v>
       </c>
       <c r="AC23">
-        <v>412.7</v>
+        <v>443.2</v>
       </c>
       <c r="AD23">
-        <v>443.2</v>
+        <v>5.1806999999999999</v>
       </c>
       <c r="AE23">
-        <v>5.1806999999999999</v>
-      </c>
-      <c r="AF23">
         <v>22235</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -5898,47 +6023,47 @@
       <c r="R24">
         <v>32586</v>
       </c>
+      <c r="S24">
+        <v>7.02</v>
+      </c>
       <c r="T24">
-        <v>7.02</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="U24">
-        <v>1.0999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="V24">
-        <v>7.3999999999999996E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="W24">
-        <v>7.1999999999999995E-2</v>
+        <v>33559.377559377499</v>
       </c>
       <c r="X24">
-        <v>33559.377559377499</v>
+        <v>24585.599999999999</v>
       </c>
       <c r="Y24">
-        <v>24585.599999999999</v>
+        <v>81.209999999999894</v>
       </c>
       <c r="Z24">
-        <v>81.209999999999894</v>
+        <v>391.3</v>
       </c>
       <c r="AA24">
-        <v>391.3</v>
+        <v>371.5</v>
       </c>
       <c r="AB24">
-        <v>371.5</v>
+        <v>428.1</v>
       </c>
       <c r="AC24">
-        <v>428.1</v>
+        <v>471.6</v>
       </c>
       <c r="AD24">
-        <v>471.6</v>
+        <v>5.3536000000000001</v>
       </c>
       <c r="AE24">
-        <v>5.3536000000000001</v>
-      </c>
-      <c r="AF24">
         <v>23120</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -5993,47 +6118,47 @@
       <c r="R25">
         <v>34281</v>
       </c>
+      <c r="S25">
+        <v>6.9</v>
+      </c>
       <c r="T25">
-        <v>6.9</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="U25">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="V25">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="W25">
-        <v>1.4E-2</v>
+        <v>36498.7614596899</v>
       </c>
       <c r="X25">
-        <v>36498.7614596899</v>
+        <v>28585.1</v>
       </c>
       <c r="Y25">
-        <v>28585.1</v>
+        <v>76.5</v>
       </c>
       <c r="Z25">
-        <v>76.5</v>
+        <v>425.2</v>
       </c>
       <c r="AA25">
-        <v>425.2</v>
+        <v>414.9</v>
       </c>
       <c r="AB25">
-        <v>414.9</v>
+        <v>490</v>
       </c>
       <c r="AC25">
-        <v>490</v>
+        <v>543.5</v>
       </c>
       <c r="AD25">
-        <v>543.5</v>
+        <v>5.9951999999999996</v>
       </c>
       <c r="AE25">
-        <v>5.9951999999999996</v>
-      </c>
-      <c r="AF25">
         <v>24323</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -6088,47 +6213,47 @@
       <c r="R26">
         <v>36037</v>
       </c>
+      <c r="S26">
+        <v>6.91</v>
+      </c>
       <c r="T26">
-        <v>6.91</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="U26">
-        <v>8.0000000000000002E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="V26">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W26">
-        <v>2.5000000000000001E-2</v>
+        <v>39896.792632581702</v>
       </c>
       <c r="X26">
-        <v>39896.792632581702</v>
+        <v>32665.1</v>
       </c>
       <c r="Y26">
-        <v>32665.1</v>
+        <v>80.58</v>
       </c>
       <c r="Z26">
-        <v>80.58</v>
+        <v>459.5</v>
       </c>
       <c r="AA26">
-        <v>459.5</v>
+        <v>437.7</v>
       </c>
       <c r="AB26">
-        <v>437.7</v>
+        <v>511.5</v>
       </c>
       <c r="AC26">
-        <v>511.5</v>
+        <v>577.5</v>
       </c>
       <c r="AD26">
-        <v>577.5</v>
+        <v>6.2778</v>
       </c>
       <c r="AE26">
-        <v>6.2778</v>
-      </c>
-      <c r="AF26">
         <v>25443</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -6183,47 +6308,47 @@
       <c r="R27">
         <v>38487</v>
       </c>
+      <c r="S27">
+        <v>6.9</v>
+      </c>
       <c r="T27">
-        <v>6.9</v>
+        <v>1.2E-2</v>
       </c>
       <c r="U27">
-        <v>1.2E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="V27">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="W27">
-        <v>4.7E-2</v>
+        <v>42442.560708427402</v>
       </c>
       <c r="X27">
-        <v>42442.560708427402</v>
+        <v>37001</v>
       </c>
       <c r="Y27">
-        <v>37001</v>
+        <v>81.44</v>
       </c>
       <c r="Z27">
-        <v>81.44</v>
+        <v>479.1</v>
       </c>
       <c r="AA27">
-        <v>479.1</v>
+        <v>473.1</v>
       </c>
       <c r="AB27">
-        <v>473.1</v>
+        <v>539.29999999999995</v>
       </c>
       <c r="AC27">
-        <v>539.29999999999995</v>
+        <v>594</v>
       </c>
       <c r="AD27">
-        <v>594</v>
+        <v>6.6966999999999999</v>
       </c>
       <c r="AE27">
-        <v>6.6966999999999999</v>
-      </c>
-      <c r="AF27">
         <v>26951</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -6278,47 +6403,47 @@
       <c r="R28">
         <v>40588</v>
       </c>
+      <c r="S28">
+        <v>6.9</v>
+      </c>
       <c r="T28">
-        <v>6.9</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="U28">
-        <v>3.5000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V28">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="W28">
-        <v>3.3000000000000002E-2</v>
+        <v>45112.695868363298</v>
       </c>
       <c r="X28">
-        <v>45112.695868363298</v>
+        <v>41371.5</v>
       </c>
       <c r="Y28">
-        <v>41371.5</v>
+        <v>82.58</v>
       </c>
       <c r="Z28">
-        <v>82.58</v>
+        <v>524.29999999999995</v>
       </c>
       <c r="AA28">
-        <v>524.29999999999995</v>
+        <v>505.1</v>
       </c>
       <c r="AB28">
-        <v>505.1</v>
+        <v>575</v>
       </c>
       <c r="AC28">
-        <v>575</v>
+        <v>627.70000000000005</v>
       </c>
       <c r="AD28">
-        <v>627.70000000000005</v>
+        <v>7.1757</v>
       </c>
       <c r="AE28">
-        <v>7.1757</v>
-      </c>
-      <c r="AF28">
         <v>28412</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -6373,47 +6498,47 @@
       <c r="R29">
         <v>42560</v>
       </c>
+      <c r="S29">
+        <v>6.92</v>
+      </c>
       <c r="T29">
-        <v>6.92</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U29">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="V29">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="W29">
-        <v>2.9000000000000001E-2</v>
+        <v>45462.055817401902</v>
       </c>
       <c r="X29">
-        <v>45462.055817401902</v>
+        <v>42923</v>
       </c>
       <c r="Y29">
-        <v>42923</v>
+        <v>96.29</v>
       </c>
       <c r="Z29">
-        <v>96.29</v>
+        <v>478.7</v>
       </c>
       <c r="AA29">
-        <v>478.7</v>
+        <v>522</v>
       </c>
       <c r="AB29">
-        <v>522</v>
+        <v>577.20000000000005</v>
       </c>
       <c r="AC29">
-        <v>577.20000000000005</v>
+        <v>586.1</v>
       </c>
       <c r="AD29">
-        <v>586.1</v>
+        <v>7.8201999999999998</v>
       </c>
       <c r="AE29">
-        <v>7.8201999999999998</v>
-      </c>
-      <c r="AF29">
         <v>29889</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -6468,47 +6593,47 @@
       <c r="R30">
         <v>44374</v>
       </c>
+      <c r="S30">
+        <v>6.94</v>
+      </c>
       <c r="T30">
-        <v>6.94</v>
+        <v>1.4E-2</v>
       </c>
       <c r="U30">
-        <v>1.4E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="V30">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="W30">
-        <v>3.6999999999999998E-2</v>
+        <v>43937.776872549497</v>
       </c>
       <c r="X30">
-        <v>43937.776872549497</v>
+        <v>43144.7</v>
       </c>
       <c r="Y30">
-        <v>43144.7</v>
+        <v>96.89</v>
       </c>
       <c r="Z30">
-        <v>96.89</v>
+        <v>461.9</v>
       </c>
       <c r="AA30">
-        <v>461.9</v>
+        <v>522.9</v>
       </c>
       <c r="AB30">
-        <v>522.9</v>
+        <v>555.20000000000005</v>
       </c>
       <c r="AC30">
-        <v>555.20000000000005</v>
+        <v>541.70000000000005</v>
       </c>
       <c r="AD30">
-        <v>541.70000000000005</v>
+        <v>7.9023000000000003</v>
       </c>
       <c r="AE30">
-        <v>7.9023000000000003</v>
-      </c>
-      <c r="AF30">
         <v>30905</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -6563,47 +6688,47 @@
       <c r="R31">
         <v>46236</v>
       </c>
+      <c r="S31">
+        <v>6.97</v>
+      </c>
       <c r="T31">
-        <v>6.97</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U31">
-        <v>2.5000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="V31">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="W31">
-        <v>4.2000000000000003E-2</v>
+        <v>45939.420979575603</v>
       </c>
       <c r="X31">
-        <v>45939.420979575603</v>
+        <v>46334.5</v>
       </c>
       <c r="Y31">
-        <v>46334.5</v>
+        <v>96.6</v>
       </c>
       <c r="Z31">
-        <v>96.6</v>
+        <v>459.7</v>
       </c>
       <c r="AA31">
-        <v>459.7</v>
+        <v>541.79999999999995</v>
       </c>
       <c r="AB31">
-        <v>541.79999999999995</v>
+        <v>569.29999999999995</v>
       </c>
       <c r="AC31">
-        <v>569.29999999999995</v>
+        <v>565</v>
       </c>
       <c r="AD31">
-        <v>565</v>
+        <v>8.1137999999999995</v>
       </c>
       <c r="AE31">
-        <v>8.1137999999999995</v>
-      </c>
-      <c r="AF31">
         <v>32367</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -6658,47 +6783,47 @@
       <c r="R32">
         <v>48189</v>
       </c>
+      <c r="S32">
+        <v>6.97</v>
+      </c>
       <c r="T32">
-        <v>6.97</v>
+        <v>2.3E-2</v>
       </c>
       <c r="U32">
-        <v>2.3E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="V32">
         <v>4.7E-2</v>
       </c>
       <c r="W32">
-        <v>4.7E-2</v>
+        <v>47815.100605587002</v>
       </c>
       <c r="X32">
-        <v>47815.100605587002</v>
+        <v>48953.1</v>
       </c>
       <c r="Y32">
-        <v>48953.1</v>
+        <v>93.58</v>
       </c>
       <c r="Z32">
-        <v>93.58</v>
+        <v>443.1</v>
       </c>
       <c r="AA32">
-        <v>443.1</v>
+        <v>552.6</v>
       </c>
       <c r="AB32">
-        <v>552.6</v>
+        <v>567.79999999999995</v>
       </c>
       <c r="AC32">
-        <v>567.79999999999995</v>
+        <v>582.70000000000005</v>
       </c>
       <c r="AD32">
-        <v>582.70000000000005</v>
+        <v>8.5337999999999994</v>
       </c>
       <c r="AE32">
-        <v>8.5337999999999994</v>
-      </c>
-      <c r="AF32">
         <v>33759</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -6753,47 +6878,47 @@
       <c r="R33">
         <v>49257</v>
       </c>
+      <c r="S33">
+        <v>6.97</v>
+      </c>
       <c r="T33">
-        <v>6.97</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="U33">
-        <v>4.3999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V33">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W33">
-        <v>7.0000000000000007E-2</v>
+        <v>47338.281159755097</v>
       </c>
       <c r="X33">
-        <v>47338.281159755097</v>
+        <v>49176.9</v>
       </c>
       <c r="Y33">
-        <v>49176.9</v>
+        <v>97.4</v>
       </c>
       <c r="Z33">
-        <v>97.4</v>
+        <v>445.1</v>
       </c>
       <c r="AA33">
-        <v>445.1</v>
+        <v>552.6</v>
       </c>
       <c r="AB33">
-        <v>552.6</v>
+        <v>556.6</v>
       </c>
       <c r="AC33">
-        <v>556.6</v>
+        <v>588.4</v>
       </c>
       <c r="AD33">
-        <v>588.4</v>
+        <v>8.6428999999999903</v>
       </c>
       <c r="AE33">
-        <v>8.6428999999999903</v>
-      </c>
-      <c r="AF33">
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -6848,8 +6973,11 @@
       <c r="R34">
         <v>44953</v>
       </c>
+      <c r="S34">
+        <v>6.97</v>
+      </c>
       <c r="T34">
-        <v>6.97</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="U34">
         <v>6.8000000000000005E-2</v>
@@ -6858,37 +6986,34 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="W34">
-        <v>6.8000000000000005E-2</v>
+        <v>51267.821114733997</v>
       </c>
       <c r="X34">
-        <v>51267.821114733997</v>
+        <v>53616.4</v>
       </c>
       <c r="Y34">
-        <v>53616.4</v>
+        <v>95.819999999999894</v>
       </c>
       <c r="Z34">
-        <v>95.819999999999894</v>
+        <v>454.2</v>
       </c>
       <c r="AA34">
-        <v>454.2</v>
+        <v>545</v>
       </c>
       <c r="AB34">
-        <v>545</v>
+        <v>543.1</v>
       </c>
       <c r="AC34">
-        <v>543.1</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="AD34">
-        <v>563.79999999999995</v>
+        <v>8.6615000000000002</v>
       </c>
       <c r="AE34">
-        <v>8.6615000000000002</v>
-      </c>
-      <c r="AF34">
         <v>32250</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -6943,47 +7068,47 @@
       <c r="R35">
         <v>47700</v>
       </c>
+      <c r="S35">
+        <v>6.92</v>
+      </c>
       <c r="T35">
-        <v>6.92</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U35">
-        <v>5.5E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V35">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="W35">
-        <v>6.5000000000000002E-2</v>
+        <v>53181.391734503297</v>
       </c>
       <c r="X35">
-        <v>53181.391734503297</v>
+        <v>56118.6</v>
       </c>
       <c r="Y35">
-        <v>56118.6</v>
+        <v>92.5</v>
       </c>
       <c r="Z35">
-        <v>92.5</v>
+        <v>499.1</v>
       </c>
       <c r="AA35">
-        <v>499.1</v>
+        <v>552.6</v>
       </c>
       <c r="AB35">
-        <v>552.6</v>
+        <v>557.70000000000005</v>
       </c>
       <c r="AC35">
-        <v>557.70000000000005</v>
+        <v>664.6</v>
       </c>
       <c r="AD35">
-        <v>664.6</v>
+        <v>8.8813999999999904</v>
       </c>
       <c r="AE35">
-        <v>8.8813999999999904</v>
-      </c>
-      <c r="AF35">
         <v>33973</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -7038,47 +7163,47 @@
       <c r="R36">
         <v>49420</v>
       </c>
+      <c r="S36">
+        <v>6.91</v>
+      </c>
       <c r="T36">
-        <v>6.91</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="U36">
-        <v>5.1999999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="V36">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="W36">
-        <v>6.4000000000000001E-2</v>
+        <v>52118.0319432447</v>
       </c>
       <c r="X36">
-        <v>52118.0319432447</v>
+        <v>56713.8</v>
       </c>
       <c r="Y36">
-        <v>56713.8</v>
+        <v>104</v>
       </c>
       <c r="Z36">
-        <v>104</v>
+        <v>526.5</v>
       </c>
       <c r="AA36">
-        <v>526.5</v>
+        <v>578.70000000000005</v>
       </c>
       <c r="AB36">
-        <v>578.70000000000005</v>
+        <v>578.6</v>
       </c>
       <c r="AC36">
-        <v>578.6</v>
+        <v>749.5</v>
       </c>
       <c r="AD36">
-        <v>749.5</v>
+        <v>9.2049000000000003</v>
       </c>
       <c r="AE36">
-        <v>9.2049000000000003</v>
-      </c>
-      <c r="AF36">
         <v>35116</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -7133,47 +7258,47 @@
       <c r="R37">
         <v>50943</v>
       </c>
+      <c r="S37">
+        <v>7.11</v>
+      </c>
       <c r="T37">
-        <v>7.11</v>
+        <v>7.0999999999999897E-2</v>
       </c>
       <c r="U37">
-        <v>7.0999999999999897E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V37">
         <v>0.05</v>
       </c>
       <c r="W37">
-        <v>0.05</v>
+        <v>60273.210766447897</v>
       </c>
       <c r="X37">
-        <v>60273.210766447897</v>
+        <v>66977.399999999994</v>
       </c>
       <c r="Y37">
-        <v>66977.399999999994</v>
+        <v>103.44</v>
       </c>
       <c r="Z37">
-        <v>103.44</v>
+        <v>522.70000000000005</v>
       </c>
       <c r="AA37">
-        <v>522.70000000000005</v>
+        <v>589.6</v>
       </c>
       <c r="AB37">
-        <v>589.6</v>
+        <v>586.4</v>
       </c>
       <c r="AC37">
-        <v>586.4</v>
+        <v>693.6</v>
       </c>
       <c r="AD37">
-        <v>693.6</v>
+        <v>9.3148</v>
       </c>
       <c r="AE37">
-        <v>9.3148</v>
-      </c>
-      <c r="AF37">
         <v>36231</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -7228,41 +7353,308 @@
       <c r="R38">
         <v>51315</v>
       </c>
+      <c r="S38">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="T38">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="U38">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="V38">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="W38">
-        <v>4.9000000000000002E-2</v>
+        <v>65716.775634783597</v>
       </c>
       <c r="X38">
-        <v>65716.775634783597</v>
+        <v>80310.5</v>
       </c>
       <c r="Y38">
-        <v>80310.5</v>
+        <v>104.2</v>
       </c>
       <c r="Z38">
-        <v>104.2</v>
+        <v>543.4</v>
       </c>
       <c r="AA38">
-        <v>543.4</v>
+        <v>624.9</v>
       </c>
       <c r="AB38">
-        <v>624.9</v>
+        <v>587.4</v>
       </c>
       <c r="AC38">
-        <v>587.4</v>
+        <v>701.8</v>
       </c>
       <c r="AD38">
-        <v>701.8</v>
+        <v>9.7247912620000001</v>
       </c>
       <c r="AE38">
-        <v>9.7247912620000001</v>
-      </c>
-      <c r="AF38">
         <v>36443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6D04C2-621A-4981-84D4-33893D056C42}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Eviews/data_finprog_bo.xlsx
+++ b/Eviews/data_finprog_bo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D8787-77C1-4151-8E95-EC76E3D068A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD598A61-C5D7-4451-8C64-FEA97B1E1DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
   <si>
     <t>CPRIVR</t>
   </si>
@@ -196,44 +196,87 @@
     <t>Calculo</t>
   </si>
   <si>
-    <t>Inflacion</t>
-  </si>
-  <si>
     <t>Expectativas de inflacion</t>
   </si>
   <si>
     <t>Inflacion mundial</t>
   </si>
   <si>
-    <t>Tasa de interes pasiva real?</t>
-  </si>
-  <si>
-    <t>Indice de precios al consumidor</t>
-  </si>
-  <si>
     <t>Indice de Tipo de Cambio Real</t>
   </si>
   <si>
-    <t>Agregado M3</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Deflactor del PIB ??</t>
+    <t>Índice de Precios al Consumidor</t>
   </si>
   <si>
-    <t>PIB real</t>
+    <t>Inflación</t>
   </si>
   <si>
-    <t>Tipo de Cambio Nominal</t>
+    <t>Tipo de cambio nominal (Bs/US$).</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Agregado monetario amplio.</t>
+  </si>
+  <si>
+    <t>PIB real (constantes).</t>
+  </si>
+  <si>
+    <t>PIB a precios corrientes (nominal).</t>
+  </si>
+  <si>
+    <t>Deflactor del PIB ?? O pib potencial</t>
+  </si>
+  <si>
+    <t>Brecha del producto</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Tasa de interes pasiva real</t>
+  </si>
+  <si>
+    <t>deflactores</t>
+  </si>
+  <si>
+    <t>Consumo privado real</t>
+  </si>
+  <si>
+    <t>Inversión privada real</t>
+  </si>
+  <si>
+    <t>índice dólar.</t>
+  </si>
+  <si>
+    <t>emisión monetaria (nominal)</t>
+  </si>
+  <si>
+    <t>emisión monetaria (real)</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Estimacion</t>
+  </si>
+  <si>
+    <t>Cálculo</t>
+  </si>
+  <si>
+    <t>dfault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +292,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +313,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,17 +334,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3982,7 +4077,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="U2" sqref="U2:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4101,10 +4196,10 @@
       <c r="R2">
         <v>14220</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>0.255</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>0.254</v>
       </c>
       <c r="AD2">
@@ -4133,10 +4228,10 @@
       <c r="R3">
         <v>14759</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>0.17299999999999999</v>
       </c>
       <c r="AD3">
@@ -4174,10 +4269,10 @@
       <c r="R4">
         <v>15443</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>0.24</v>
       </c>
       <c r="W4">
@@ -4260,10 +4355,10 @@
       <c r="S5">
         <v>3.57</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>0.14599999999999999</v>
       </c>
       <c r="W5">
@@ -4349,10 +4444,10 @@
       <c r="S6">
         <v>3.9</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>0.13200000000000001</v>
       </c>
       <c r="W6">
@@ -4438,10 +4533,10 @@
       <c r="S7">
         <v>4.26</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>0.17399999999999999</v>
       </c>
       <c r="W7">
@@ -4527,10 +4622,10 @@
       <c r="S8">
         <v>4.62</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>0.17499999999999999</v>
       </c>
       <c r="W8">
@@ -4616,10 +4711,10 @@
       <c r="S9">
         <v>4.8</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>0.124</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>0.125</v>
       </c>
       <c r="W9">
@@ -4705,10 +4800,10 @@
       <c r="S10">
         <v>5.07</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="W10">
@@ -4794,10 +4889,10 @@
       <c r="S11">
         <v>5.25</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>0.13600000000000001</v>
       </c>
       <c r="W11">
@@ -4889,10 +4984,10 @@
       <c r="T12">
         <v>0.13700000000000001</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>0.125</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>0.125</v>
       </c>
       <c r="W12">
@@ -4984,10 +5079,10 @@
       <c r="T13">
         <v>0.13400000000000001</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <v>0.16200000000000001</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>0.16200000000000001</v>
       </c>
       <c r="W13">
@@ -5079,10 +5174,10 @@
       <c r="T14">
         <v>0.12</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <v>0.182</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="4">
         <v>0.182</v>
       </c>
       <c r="W14">
@@ -5174,10 +5269,10 @@
       <c r="T15">
         <v>0.104</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="4">
         <v>0.17899999999999999</v>
       </c>
       <c r="W15">
@@ -5269,10 +5364,10 @@
       <c r="T16">
         <v>0.113</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="4">
         <v>0.19800000000000001</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="4">
         <v>0.19800000000000001</v>
       </c>
       <c r="W16">
@@ -5364,10 +5459,10 @@
       <c r="T17">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="4">
         <v>0.16900000000000001</v>
       </c>
       <c r="W17">
@@ -5459,10 +5554,10 @@
       <c r="T18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="4">
         <v>0.10100000000000001</v>
       </c>
       <c r="W18">
@@ -5554,10 +5649,10 @@
       <c r="T19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="4">
         <v>7.8E-2</v>
       </c>
       <c r="W19">
@@ -5649,10 +5744,10 @@
       <c r="T20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="4">
         <v>6.2E-2</v>
       </c>
       <c r="W20">
@@ -5744,10 +5839,10 @@
       <c r="T21">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="W21">
@@ -5839,10 +5934,10 @@
       <c r="T22">
         <v>2.7E-2</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="4">
         <v>-0.05</v>
       </c>
       <c r="W22">
@@ -5934,10 +6029,10 @@
       <c r="T23">
         <v>0.01</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="4">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="4">
         <v>-0.02</v>
       </c>
       <c r="W23">
@@ -6029,10 +6124,10 @@
       <c r="T24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="W24">
@@ -6124,10 +6219,10 @@
       <c r="T25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="4">
         <v>1.4E-2</v>
       </c>
       <c r="W25">
@@ -6219,10 +6314,10 @@
       <c r="T26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="4">
         <v>2.7E-2</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="W26">
@@ -6314,10 +6409,10 @@
       <c r="T27">
         <v>1.2E-2</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="4">
         <v>4.7E-2</v>
       </c>
       <c r="W27">
@@ -6409,10 +6504,10 @@
       <c r="T28">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="W28">
@@ -6504,10 +6599,10 @@
       <c r="T29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="4">
         <v>0.03</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="W29">
@@ -6599,10 +6694,10 @@
       <c r="T30">
         <v>1.4E-2</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="W30">
@@ -6694,10 +6789,10 @@
       <c r="T31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="W31">
@@ -6789,10 +6884,10 @@
       <c r="T32">
         <v>2.3E-2</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="4">
         <v>4.7E-2</v>
       </c>
       <c r="W32">
@@ -6884,10 +6979,10 @@
       <c r="T33">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W33">
@@ -6979,10 +7074,10 @@
       <c r="T34">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="W34">
@@ -7074,10 +7169,10 @@
       <c r="T35">
         <v>5.5E-2</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="W35">
@@ -7169,10 +7264,10 @@
       <c r="T36">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="W36">
@@ -7264,10 +7359,10 @@
       <c r="T37">
         <v>7.0999999999999897E-2</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="4">
         <v>0.05</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="4">
         <v>0.05</v>
       </c>
       <c r="W37">
@@ -7359,7 +7454,8 @@
       <c r="T38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V38">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="W38">
@@ -7397,21 +7493,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6D04C2-621A-4981-84D4-33893D056C42}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>49</v>
@@ -7422,239 +7519,425 @@
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Eviews/data_finprog_bo.xlsx
+++ b/Eviews/data_finprog_bo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paulo Ramos\Nueva carpeta (2)\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0AE7A-E9CF-4D17-A0EA-BCD3B588A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EAEA9-9738-4DFD-A920-972A7F1752FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>CPRIVR</t>
   </si>
@@ -120,12 +120,25 @@
   <si>
     <t>TC</t>
   </si>
+  <si>
+    <t>PIB_R_LAST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,9 +458,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -539,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -571,7 +587,7 @@
         <v>11281</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1989</v>
       </c>
@@ -603,7 +619,7 @@
         <v>11482</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -662,7 +678,7 @@
         <v>11870</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1991</v>
       </c>
@@ -751,7 +767,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -840,7 +856,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1993</v>
       </c>
@@ -929,7 +945,7 @@
         <v>13123</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -1018,7 +1034,7 @@
         <v>13508</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -1107,7 +1123,7 @@
         <v>13906</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>15935</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -1475,7 +1491,7 @@
         <v>16375</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>16752</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>16965</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>17312</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2003</v>
       </c>
@@ -1855,7 +1871,7 @@
         <v>17638</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -1950,7 +1966,7 @@
         <v>18151</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>18755</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -2140,7 +2156,7 @@
         <v>19519</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>20333</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>21448</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>22235</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>23120</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -2615,7 +2631,7 @@
         <v>24323</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -2710,7 +2726,7 @@
         <v>25443</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>26951</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -2900,7 +2916,7 @@
         <v>28412</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>29889</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>30905</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>32367</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -3280,7 +3296,7 @@
         <v>33759</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -3375,7 +3391,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>32250</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -3565,7 +3581,7 @@
         <v>33973</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -3660,7 +3676,7 @@
         <v>35116</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -3755,7 +3771,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -3857,12 +3873,25 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3917,6 +3946,9 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
       <c r="T1" t="s">
         <v>30</v>
       </c>
@@ -3957,3311 +3989,3417 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1988</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>0.2</v>
       </c>
-      <c r="I2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>0.151</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>523</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
         <v>1683</v>
       </c>
-      <c r="R2">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
         <v>14220</v>
       </c>
-      <c r="V2">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
         <v>0.255</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>0.254</v>
       </c>
-      <c r="AE2">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1">
         <v>0.68310000000000004</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>11281</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1989</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>0.155</v>
       </c>
-      <c r="I3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>505</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
         <v>2245</v>
       </c>
-      <c r="R3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
         <v>14759</v>
       </c>
-      <c r="V3">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AE3">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
         <v>0.83420000000000005</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>11482</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1990</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>0.155</v>
       </c>
-      <c r="I4">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>0.122</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>20.337</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>764</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>87.555813610000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>3339</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>15443</v>
       </c>
-      <c r="R4">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
         <v>15443</v>
       </c>
-      <c r="V4">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>0.24</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>3285.1453016669102</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>668.1</v>
       </c>
-      <c r="AA4">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
         <v>100</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>100</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>100</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>100</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>1</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>11870</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1991</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.13558219677931099</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1.8340734499933301E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.1855</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.117241462279378</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>23.29</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>945</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>90.848779320000006</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>5171</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>19132</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>1.0214122408639399E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>4.1092122746569003E-2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>5.1306245155208402E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>16256</v>
       </c>
-      <c r="T5">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
         <v>3.57</v>
       </c>
-      <c r="V5">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>3329.3258909403098</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>775.4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>89.72</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>117.2</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>121.4</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>122</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>124</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>1.2314000000000001</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>12264</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1992</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>0.17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>9.9478069760274401E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-7.8906127691992199E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.43</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.107368682529473</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>25.725999999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1068</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>93.763636790000007</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>7092</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>22014</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>-2.3801416872545601E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>4.0153215010991901E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>1.63517981384462E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>16524</v>
       </c>
-      <c r="T6">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
         <v>3.9</v>
       </c>
-      <c r="V6">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>3619.6843660110399</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>931.2</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>86.54</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>136.1</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="1">
         <v>137.69999999999999</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>140.69999999999999</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>139.9</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="1">
         <v>1.4564999999999999</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>12700</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1993</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>0.18</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>8.8978913285940195E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>-8.7003968386284297E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.42909999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>9.7679310124568597E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>28.12</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1241</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>94.928079929999996</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>9675</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>24459</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>2.5217325058182099E-3</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>3.9316448499501201E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>4.18381810053194E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>17230</v>
       </c>
-      <c r="T7">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
         <v>4.26</v>
       </c>
-      <c r="V7">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>3737.1977240398301</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>1050.9000000000001</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>93.04</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>151.9</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>147.9</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>154.80000000000001</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>152.9</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>1.6395999999999999</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>13123</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1994</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>0.12</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>8.1770069285518707E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-6.5077769964517196E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.2525</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>8.8277846281970496E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>30.515999999999998</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>1061</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>101.9708826</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>11767</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>27636</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>7.1608642704185802E-3</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>3.8445950267457903E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>4.5606814537876503E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>18034</v>
       </c>
-      <c r="T8">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
         <v>4.62</v>
       </c>
-      <c r="V8">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>4707.3666273430299</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>1436.5</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>91.15</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>166</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="1">
         <v>158.80000000000001</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
         <v>169.6</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>166.6</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="1">
         <v>1.8228</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="1">
         <v>13508</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1995</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>0.12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.118496432255056</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.105</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>3.9314644004456202E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.1283</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>7.9181788250600293E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>34.354999999999997</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>1365</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>105.08680889999999</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>12880</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>32235</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>8.2543200136011106E-3</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>3.7431064695281097E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>4.5685384708882198E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>18877</v>
       </c>
-      <c r="T9">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
         <v>4.8</v>
       </c>
-      <c r="V9">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
         <v>0.124</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>0.125</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>5049.9199534274503</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>1734.9</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>84.14</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>179</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <v>175.8</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>181.2</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>178.4</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="1">
         <v>1.9945999999999999</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="1">
         <v>13906</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1996</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>0.11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>7.6491971422151903E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.105</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>6.1484159127372902E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>7.0343555509414596E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>37.085999999999999</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1709</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>99.374933339999998</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>18430</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>37537</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>6.4924012842552401E-3</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>3.6232744806094203E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>4.2725146090349497E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>19701</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
         <v>5.07</v>
       </c>
-      <c r="V10">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>5076.8484064067297</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>1882.8</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>87.22</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>195.7</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="1">
         <v>196.4</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>195.2</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>193.1</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>2.2227999999999999</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="1">
         <v>14360</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1997</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>6.5134929563597593E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3.0262155861830301E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>6.2108713977414597E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.05</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>39.582000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>2731</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>97.062282389999893</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>22039</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>41644</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>1.34580887185301E-2</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>3.4894486823156497E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>4.8352575541686697E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>20677</v>
       </c>
-      <c r="T11">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
         <v>5.25</v>
       </c>
-      <c r="V11">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>5449.6993582941705</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>2157.1</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>96.27</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>199.6</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="1">
         <v>205.5</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
         <v>203</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>203.1</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="1">
         <v>2.4889999999999999</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="1">
         <v>15140</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.06</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>4.2996375845076401E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>-1.18879378876525E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>5.4884313732728902E-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>41.320999999999998</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>3921</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>93.541560129999894</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>25118</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>46822</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>1.55486815779118E-2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>3.35247109825699E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>4.90733925604818E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>21717</v>
       </c>
-      <c r="T12">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
         <v>5.51</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>0.125</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>0.125</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="1">
         <v>5853.1981317005802</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <v>2418.6</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>98.7</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>213.1</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="1">
         <v>220.5</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
         <v>213.1</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="1">
         <v>207.2</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="1">
         <v>2.7572000000000001</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="1">
         <v>15935</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1999</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.113</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>3.0835458660395599E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>-1.82722083489524E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>4.9107667009348099E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>42.615000000000002</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>3032</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>93.580106009999994</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>25777</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>48156</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>-2.8139053751646801E-2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>3.2366418407621701E-2</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>4.2273646559749497E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>21809</v>
       </c>
-      <c r="T13">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
         <v>5.8</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>5676.8743400211097</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>2419.1999999999998</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>99.94</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>213.3</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="1">
         <v>226</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
         <v>213.3</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>215.4</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="1">
         <v>2.8593999999999999</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="1">
         <v>16375</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>3.3550283449052601E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>-1.1546923213333201E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>4.50972066623858E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>44.069000000000003</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>2815</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>94.640855079999994</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>27264</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>51928</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>-7.0460842650151402E-3</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>3.1818097037378298E-2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>2.47720127723631E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>22356</v>
       </c>
-      <c r="T14">
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <v>6.17</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>0.12</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>0.182</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>0.182</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>5500.9190133654001</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>2424.1999999999998</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>109.64</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>236.5</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="1">
         <v>236.7</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="1">
         <v>236.5</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>222.2</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="1">
         <v>2.9678</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="1">
         <v>16752</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>9.2156142012611506E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>-3.3773029262205503E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>4.2988643463466598E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>8.1999999999999906E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>44.476999999999997</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>1894</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>96.283832419999996</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>29160</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>53790</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>-1.52739723636329E-2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>3.1996844273389502E-2</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>1.67228719097565E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>22733</v>
       </c>
-      <c r="T15">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <v>6.6</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>0.104</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>6071.0029903095901</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>2700.2</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>115.02</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>242.9</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="1">
         <v>238.7</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>242.9</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>224</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>3.2322000000000002</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="1">
         <v>16965</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.104</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.04</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2.41676763235152E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>-1.86345426285662E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>4.28022189520815E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>45.564999999999998</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>2489</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>90.064121950000001</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>28473</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>56682</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>-8.3993900141794108E-3</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>3.2949296674554998E-2</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>2.4549906660375601E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>23298</v>
       </c>
-      <c r="T16">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
         <v>7.16</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>0.113</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>6666.0814221441897</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>3037.4</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>111.01</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>230.6</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="1">
         <v>241.7</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>268.39999999999998</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>229</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>3.3431999999999999</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="1">
         <v>17312</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2003</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.04</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>3.8638112627660197E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>-5.5823317474391404E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>4.4220444375099401E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>47.36</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>2126</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>99.908111739999995</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>29912</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>61904</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>-7.8457585565434602E-3</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>3.4569351076138198E-2</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>2.6723592519594701E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>23929</v>
       </c>
-      <c r="T17">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
         <v>7.65</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>7442.3564189189101</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <v>3524.7</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>95.709999999999894</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>218.2</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="1">
         <v>249.2</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="1">
         <v>282.5</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>235.8</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="1">
         <v>3.6474000000000002</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="1">
         <v>17638</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2004</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.03</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>4.5184088361882098E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>-1.5553971912214901E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>4.07E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>4.6739485553103602E-2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.02</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>49.548999999999999</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>1724</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>106.5495789</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>30194</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>69626</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>4.2336467778970304E-3</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>3.66669104132607E-2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>4.0900557191157802E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>24928</v>
       </c>
-      <c r="T18">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
         <v>7.93</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>8643.9685967426194</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <v>4283</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>87.36</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>206.1</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="1">
         <v>260.5</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="1">
         <v>305.8</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="1">
         <v>251.1</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="1">
         <v>3.9138999999999999</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="1">
         <v>18151</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>4.7935425872569E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>-1.86425911663417E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>4.9799684989203202E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>51.981999999999999</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>1809</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>112.0448166</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>34313</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>77024</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>4.2846292826580904E-3</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>3.8973420035478802E-2</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>4.3258049318136899E-2</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>26030</v>
       </c>
-      <c r="T19">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <v>8.0399999999999903</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>11887.768843061</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>6179.5</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>87.16</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>260.7</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="1">
         <v>272.39999999999998</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="1">
         <v>324.8</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>295</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="1">
         <v>4.1159999999999997</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="1">
         <v>18755</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>-6.9999999999999897E-3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>4.8256870408150299E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>-4.5689608064446103E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>3.78E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>5.2825831214594901E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>-2.3E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>54.552</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1876</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>112.7841299</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>40519</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>91748</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>5.6047946452843196E-3</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>4.1262661760127502E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>4.68674564054119E-2</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>27279</v>
       </c>
-      <c r="T20">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
         <v>7.95</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>16083.003372928501</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>8773.6</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <v>86.59</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>302.2</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="1">
         <v>295.10000000000002</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="1">
         <v>395.9</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>341.2</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="1">
         <v>4.2659000000000002</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="1">
         <v>19519</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.06</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.110883073683439</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>5.5659003514130501E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>5.5224070169309102E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>60.948999999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>1957</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>109.70916819999999</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>52240</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>103009</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>1.27739905680226E-3</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>4.3351263697368699E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>4.4628662754170899E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>28524</v>
       </c>
-      <c r="T21">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
         <v>7.78</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>23138.689724195599</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>14102.8</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>80.89</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>353.3</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="1">
         <v>320.3</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="1">
         <v>426.9</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>383.8</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="1">
         <v>4.5205000000000002</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="1">
         <v>20333</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2008</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>-0.113</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.111996474461198</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.12790000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>5.5641616275886999E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>4.58E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>5.63548581853116E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>-0.109</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>68.171999999999997</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>2351</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>96.755817449999995</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>62633</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>120694</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>1.4563636119812699E-2</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>4.5111901903816802E-2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>5.9675538023629501E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>30278</v>
       </c>
-      <c r="T22">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
         <v>7.17</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>-0.05</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>25000.4400633691</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>17043.3</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>76.78</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>382.8</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="1">
         <v>350.2</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="1">
         <v>442.4</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>455.2</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="1">
         <v>4.8140000000000001</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="1">
         <v>21448</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>-2.4E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>2.62227027785044E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>-5.3512971351859402E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>5.6135241629709801E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>-8.5999999999999896E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>68.350999999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>2363</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>89.181339170000001</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>74985</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>121727</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>-1.34250167364757E-2</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>4.6430026426654301E-2</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>3.3005009690178597E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>31294</v>
       </c>
-      <c r="T23">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
         <v>6.99</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>0.01</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>-0.02</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>27640.268613480399</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>18892.400000000001</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>80.58</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>359.2</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="1">
         <v>358.6</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="1">
         <v>412.7</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="1">
         <v>443.2</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="1">
         <v>5.1806999999999999</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="1">
         <v>22235</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>6.93585637098275E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>1.43198806774578E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>5.5038683032369598E-2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>73.260000000000005</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>2510</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>92.781691260000002</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>84382</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>137876</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>-6.8803612733644298E-3</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>4.7336723674261998E-2</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>4.0456362400897498E-2</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>32586</v>
       </c>
-      <c r="T24">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1">
         <v>7.02</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <v>33559.377559377499</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="1">
         <v>24585.599999999999</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <v>81.209999999999894</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <v>391.3</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="1">
         <v>371.5</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="1">
         <v>428.1</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="1">
         <v>471.6</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="1">
         <v>5.3536000000000001</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="1">
         <v>23120</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.11</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>6.6762704284039701E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>7.5249999999999997E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>1.37591890744012E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>5.3003515209638502E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>-6.3E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>78.317999999999998</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>3296</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>88.586349089999999</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>99315</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>166232</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>2.9796866642675698E-3</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>4.7728829887655602E-2</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>5.0708516551923197E-2</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>34281</v>
       </c>
-      <c r="T25">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
         <v>6.9</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="1">
         <v>36498.7614596899</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="1">
         <v>28585.1</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>76.5</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>425.2</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="1">
         <v>414.9</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="1">
         <v>490</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="1">
         <v>543.5</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="1">
         <v>5.9951999999999996</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="1">
         <v>24323</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.08</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>4.4404018505662002E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.05</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>-5.70725127897663E-3</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>5.0111269784638597E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>81.873999999999995</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>3190</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>83.897144499999996</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>119367</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>187154</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>2.5205459041146702E-3</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>4.7434377695117498E-2</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>4.9954923599232197E-2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>36037</v>
       </c>
-      <c r="T26">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
         <v>6.91</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>39896.792632581702</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <v>32665.1</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>80.58</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>459.5</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="1">
         <v>437.7</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="1">
         <v>511.5</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="1">
         <v>577.5</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="1">
         <v>6.2778</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="1">
         <v>25443</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.08</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>6.2781996083328004E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>1.6200925812091899E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>4.6581070271236001E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>87.179000000000002</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>3426</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>77.257925670000006</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>138661</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>211856</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>1.9463136911822099E-2</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>4.6311196591572699E-2</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>6.5774333503394899E-2</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>38487</v>
       </c>
-      <c r="T27">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
         <v>6.9</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>42442.560708427402</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>37001</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>81.44</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>479.1</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="1">
         <v>473.1</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="1">
         <v>539.29999999999995</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>594</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="1">
         <v>6.6966999999999999</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="1">
         <v>26951</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2014</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>-2.3E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>5.0635236003149203E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>8.0602683326422495E-3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>2.81E-2</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>4.2574967670506898E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>91.706999999999894</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>3728</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>72.429937370000005</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>160279</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>228004</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>8.9096129505356406E-3</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>4.4242321530987297E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>5.3151934481523E-2</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>40588</v>
       </c>
-      <c r="T28">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
         <v>6.9</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>45112.695868363298</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <v>41371.5</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>82.58</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>524.29999999999995</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="1">
         <v>505.1</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="1">
         <v>575</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="1">
         <v>627.70000000000005</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="1">
         <v>7.1757</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="1">
         <v>28412</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2.9101246606694001E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>4.41E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>-9.3157756349546601E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>3.8417022241648599E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>94.415000000000006</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>3742</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>63.928073320000003</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>186305</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>228031</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>6.1369697801068402E-3</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>4.1305418836445597E-2</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>4.7442388616552401E-2</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>42560</v>
       </c>
-      <c r="T29">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1">
         <v>6.92</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <v>0.03</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>45462.055817401902</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>42923</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>96.29</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>478.7</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="1">
         <v>522</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="1">
         <v>577.20000000000005</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="1">
         <v>586.1</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="1">
         <v>7.8201999999999998</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="1">
         <v>29889</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.06</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>3.9255338733645402E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.05</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>4.7434418064606701E-3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>2.93E-2</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>3.4511896927184697E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>98.194999999999894</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>3924</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>62.659214630000001</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>191109</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>234533</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>4.0716163364654598E-3</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>3.7667250960537198E-2</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>4.1738867297002699E-2</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>44374</v>
       </c>
-      <c r="T30">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
         <v>6.94</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>43937.776872549497</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>43144.7</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>96.89</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>461.9</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="1">
         <v>522.9</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="1">
         <v>555.20000000000005</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>541.70000000000005</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="1">
         <v>7.9023000000000003</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="1">
         <v>30905</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2.6778119081392899E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>-4.3929778318963003E-3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>3.11710969132892E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>100.86</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>4229</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>63.99266738</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>210521</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>259185</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>7.5490530479761803E-3</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>3.3555950053652903E-2</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>4.1105003101629102E-2</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>46236</v>
       </c>
-      <c r="T31">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
         <v>6.97</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>45939.420979575603</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>46334.5</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>96.6</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="1">
         <v>459.7</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="1">
         <v>541.79999999999995</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="1">
         <v>569.29999999999995</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="1">
         <v>565</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="1">
         <v>8.1137999999999995</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="1">
         <v>32367</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1.49579643808577E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>-1.37955974233431E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>2.8753561804200901E-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>102.38</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>4321</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>62.342053960000001</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>222251</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>278388</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>1.2131699382169601E-2</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>2.9240364429547999E-2</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>4.1372063811717603E-2</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>48189</v>
       </c>
-      <c r="T32">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
         <v>6.97</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="1">
         <v>47815.100605587002</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="1">
         <v>48953.1</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <v>93.58</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <v>443.1</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="1">
         <v>552.6</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="1">
         <v>567.79999999999995</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="1">
         <v>582.70000000000005</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="1">
         <v>8.5337999999999994</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="1">
         <v>33759</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0.04</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1.4583510992199599E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.04</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>-1.2990790433639701E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>2.7574301425839401E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>103.884</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>4132</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>60.134698210000003</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>221529</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>282587</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>-3.1441226781954799E-3</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>2.50648329324577E-2</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>2.1920710254262201E-2</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>49257</v>
       </c>
-      <c r="T33">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
         <v>6.97</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="1">
         <v>47338.281159755097</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="1">
         <v>49176.9</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>97.4</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="1">
         <v>445.1</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="1">
         <v>552.6</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="1">
         <v>556.6</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="1">
         <v>588.4</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="1">
         <v>8.6428999999999903</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="1">
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>6.6869987503865797E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>-2.1123370879504499E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>2.7810369629891099E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>104.581</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>3005</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>57.674904789999999</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>246307</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>253112</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>-0.112929001384743</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>2.1495011400438701E-2</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>-9.1433989984304603E-2</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>44953</v>
       </c>
-      <c r="T34">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1">
         <v>6.97</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="1">
         <v>51267.821114733997</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="1">
         <v>53616.4</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <v>95.819999999999894</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="1">
         <v>454.2</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="1">
         <v>545</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="1">
         <v>543.1</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="1">
         <v>563.79999999999995</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="1">
         <v>8.6615000000000002</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="1">
         <v>32250</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>8.9670478621579602E-3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>-2.05418645015478E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>2.95089123637058E-2</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>105.523</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>3304</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>59.595641149999999</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>261279</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>279206</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>4.03487839358335E-2</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>1.8965114444766101E-2</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>5.9313898380599597E-2</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>47700</v>
       </c>
-      <c r="T35">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1">
         <v>6.92</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="1">
         <v>53181.391734503297</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="1">
         <v>56118.6</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <v>92.5</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="1">
         <v>499.1</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="1">
         <v>552.6</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="1">
         <v>557.70000000000005</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="1">
         <v>664.6</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="1">
         <v>8.8813999999999904</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="1">
         <v>33973</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.03</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>3.0747823280249099E-2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>-1.75801858558929E-3</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>3.2505841865838402E-2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>108.818</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>3405</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>59.585246269999999</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>274686</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>304097</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>1.8643736003300701E-2</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>1.6780066662867198E-2</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>3.5423802666167903E-2</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>49420</v>
       </c>
-      <c r="T36">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1">
         <v>6.91</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="1">
         <v>52118.0319432447</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="1">
         <v>56713.8</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <v>104</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="1">
         <v>526.5</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" s="1">
         <v>578.70000000000005</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="1">
         <v>578.6</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="1">
         <v>749.5</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="1">
         <v>9.2049000000000003</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" s="1">
         <v>35116</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2023</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.03</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>2.0960934007395501E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>-1.54707177224329E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>3.6431651729828401E-2</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>111.123</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>3608</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>60.643507669999998</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>279582</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>311886</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>1.5703879580282701E-2</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>1.4648280491527801E-2</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>3.0352160071810599E-2</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>50943</v>
       </c>
-      <c r="T37">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1">
         <v>7.11</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <v>7.0999999999999897E-2</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="1">
         <v>0.05</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="1">
         <v>0.05</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="1">
         <v>60273.210766447897</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="1">
         <v>66977.399999999994</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <v>103.44</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="1">
         <v>522.70000000000005</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="1">
         <v>589.6</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="1">
         <v>586.4</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="1">
         <v>693.6</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="1">
         <v>9.3148</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="1">
         <v>36231</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2024</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.03</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>9.5078632317441902E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>5.4179376954082703E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>4.0899255363359199E-2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>122.20699999999999</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>3182</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>60.762663070000002</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>303470</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>322193</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>-5.1888592621636897E-3</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>1.24646057275668E-2</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>7.27574646540318E-3</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>51315</v>
       </c>
-      <c r="T38">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W38">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="1">
         <v>65716.775634783597</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="1">
         <v>80310.5</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>104.2</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <v>543.4</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="1">
         <v>624.9</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="1">
         <v>587.4</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="1">
         <v>701.8</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="1">
         <v>9.7247912620000001</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="1">
         <v>36443</v>
       </c>
     </row>
